--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_6_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_6_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2207496.436224144</v>
+        <v>-2208208.738047188</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1212,55 +1212,55 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="T9" t="n">
         <v>2.817899082923868</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>188.497933319247</v>
       </c>
       <c r="C11" t="n">
-        <v>149.2956984382936</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>188.497933319247</v>
       </c>
       <c r="G11" t="n">
-        <v>188.497933319247</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240821</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929905</v>
+        <v>16.73328122929902</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.36873040538033</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.3176172467514</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>12.3726445875182</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.497933319247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>53.55024121028001</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298091</v>
+        <v>9.369887371298063</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>34.90686244546229</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>188.497933319247</v>
+        <v>13.44252716693646</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242245</v>
+        <v>36.82265945242242</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382078</v>
+        <v>59.07980534382075</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233442</v>
+        <v>62.50065676233439</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394376</v>
+        <v>88.55631942394373</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640278</v>
+        <v>39.16465028640275</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095779</v>
+        <v>45.23602198095776</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.2816970025663</v>
+        <v>25.28169700256627</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311274</v>
+        <v>57.28978021311271</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725518</v>
+        <v>45.61329429725515</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138207</v>
+        <v>66.96075103138205</v>
       </c>
       <c r="W13" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X13" t="n">
-        <v>43.7711912551747</v>
+        <v>43.77119125517467</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110059</v>
+        <v>38.99300866110056</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>181.2457790430011</v>
+      </c>
+      <c r="F14" t="n">
         <v>188.497933319247</v>
       </c>
-      <c r="C14" t="n">
-        <v>172.0572332281109</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>13.5965453032461</v>
+        <v>188.497933319247</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554827</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240816</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.73328122929896</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.36873040538028</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.31761724675135</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.497933319247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,19 +1689,19 @@
         <v>9.369887371298006</v>
       </c>
       <c r="D15" t="n">
-        <v>56.77807552279148</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>60.70558902166861</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1728,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>13.4425271669364</v>
+        <v>188.497933319247</v>
       </c>
       <c r="T15" t="n">
         <v>36.82265945242236</v>
@@ -1813,7 +1813,7 @@
         <v>25.28169700256622</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311266</v>
+        <v>57.28978021311265</v>
       </c>
       <c r="T16" t="n">
         <v>45.61329429725509</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.43211268216754</v>
+        <v>23.43211268216663</v>
       </c>
       <c r="W17" t="n">
         <v>40.44879289878241</v>
@@ -1926,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>6.856664591014263</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,31 +1965,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>146.4376822541493</v>
+      </c>
+      <c r="X18" t="n">
         <v>188.497933319247</v>
       </c>
-      <c r="T18" t="n">
+      <c r="Y18" t="n">
         <v>188.497933319247</v>
-      </c>
-      <c r="U18" t="n">
-        <v>188.497933319247</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.6395694508488</v>
+        <v>76.63956945084885</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75782645419429</v>
+        <v>52.75782645419434</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32448871524275</v>
+        <v>40.32448871524281</v>
       </c>
       <c r="E20" t="n">
-        <v>74.03124113465162</v>
+        <v>74.03124113465168</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7515787130289</v>
+        <v>105.751578713029</v>
       </c>
       <c r="G20" t="n">
         <v>121.390502035664</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156603</v>
+        <v>49.57372768156608</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.43211268216749</v>
+        <v>23.43211268216754</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44879289878236</v>
+        <v>40.44879289878241</v>
       </c>
       <c r="X20" t="n">
-        <v>62.3350433677216</v>
+        <v>62.33504336772165</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83789649146536</v>
+        <v>84.83789649146541</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -2175,13 +2175,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
-        <v>101.3679077606848</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>188.497933319247</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>175.7633004968178</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.6395694508488</v>
+        <v>76.63956945084885</v>
       </c>
       <c r="C23" t="n">
-        <v>52.75782645419429</v>
+        <v>52.75782645419434</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32448871524275</v>
+        <v>40.32448871524281</v>
       </c>
       <c r="E23" t="n">
-        <v>74.03124113465162</v>
+        <v>74.03124113465168</v>
       </c>
       <c r="F23" t="n">
-        <v>105.7515787130289</v>
+        <v>105.751578713029</v>
       </c>
       <c r="G23" t="n">
         <v>121.390502035664</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156603</v>
+        <v>49.57372768156608</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.43211268216749</v>
+        <v>23.43211268216754</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44879289878236</v>
+        <v>40.44879289878241</v>
       </c>
       <c r="X23" t="n">
-        <v>62.3350433677216</v>
+        <v>62.33504336772165</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83789649146536</v>
+        <v>84.83789649146541</v>
       </c>
     </row>
     <row r="24">
@@ -2394,31 +2394,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.0289796675929</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>16.9398613768894</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>188.497933319247</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.497933319247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2555,7 +2555,7 @@
         <v>160.6024898538323</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571777</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D26" t="n">
         <v>124.2874091182262</v>
@@ -2573,7 +2573,7 @@
         <v>133.5366480845495</v>
       </c>
       <c r="I26" t="n">
-        <v>27.525018691475</v>
+        <v>27.52501869147503</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444712</v>
+        <v>14.03224403444715</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818184</v>
+        <v>8.981130875818211</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864868</v>
+        <v>36.66579096864871</v>
       </c>
       <c r="V26" t="n">
-        <v>107.3950330851509</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W26" t="n">
         <v>124.4117133017658</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>27.49220538195017</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489207</v>
+        <v>1.486173081489235</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288754</v>
+        <v>23.74331897288756</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16417039140117</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21983305301052</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469531</v>
+        <v>200.2798937948151</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024543</v>
+        <v>9.899535610024571</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217949</v>
+        <v>21.95329384217952</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632194</v>
+        <v>10.27680792632196</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456454</v>
+        <v>75.17180644456457</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044883</v>
+        <v>31.62426466044886</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533425</v>
+        <v>76.82595656533428</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241455</v>
+        <v>8.434704884241484</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167345</v>
+        <v>3.656522290167374</v>
       </c>
     </row>
     <row r="29">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>26.57069135584074</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>61.73192909026785</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2913,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288759</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V30" t="n">
         <v>27.16417039140123</v>
@@ -2934,7 +2934,7 @@
         <v>53.21983305301057</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>3.828163915469588</v>
       </c>
       <c r="Y30" t="n">
         <v>9.8995356100246</v>
@@ -3117,16 +3117,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>15.04123390095939</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3150,19 +3150,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.01303167328651</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9709236054903</v>
+        <v>0.6584632146249673</v>
       </c>
       <c r="U33" t="n">
-        <v>22.9156091060233</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V33" t="n">
         <v>26.33646052453693</v>
@@ -3174,7 +3174,7 @@
         <v>3.000454048605292</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>9.071825743160304</v>
       </c>
     </row>
     <row r="34">
@@ -3278,7 +3278,7 @@
         <v>131.1400813837447</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7790047063797</v>
+        <v>146.7790047063798</v>
       </c>
       <c r="H35" t="n">
         <v>74.96223035228178</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3354,19 +3354,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H36" t="n">
-        <v>29.10594530235982</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>85.1561155475988</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>131.1400813837447</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7790047063797</v>
+        <v>146.7790047063798</v>
       </c>
       <c r="H38" t="n">
         <v>74.96223035228178</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3591,16 +3591,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>125.225606885117</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J39" t="n">
         <v>52.47517038390262</v>
@@ -3624,16 +3624,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4608093700285</v>
+        <v>50.62660571247175</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173706</v>
+        <v>9.14077227717371</v>
       </c>
       <c r="V41" t="n">
         <v>79.87001439367597</v>
@@ -3828,19 +3828,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>130.4002803817841</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390262</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161073</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153555</v>
+        <v>67.33202312274864</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.140772277173706</v>
+        <v>9.14077227717371</v>
       </c>
       <c r="V44" t="n">
         <v>79.87001439367597</v>
@@ -4056,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4071,13 +4071,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,22 +4098,22 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.869455874161076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>202.9896849046566</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>70.51257475633172</v>
       </c>
       <c r="W45" t="n">
         <v>25.69481436153555</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="C8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="D8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="E8" t="n">
         <v>6.719070557086891</v>
@@ -4841,13 +4841,13 @@
         <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.719070557086891</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="C9" t="n">
         <v>3.487505264143985</v>
@@ -4875,7 +4875,7 @@
         <v>3.487505264143985</v>
       </c>
       <c r="H9" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I9" t="n">
         <v>0.2559399712010781</v>
@@ -4884,49 +4884,49 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
+        <v>0.2559399712010781</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.2559399712010781</v>
+      </c>
+      <c r="M9" t="n">
         <v>3.295227129213883</v>
       </c>
-      <c r="L9" t="n">
-        <v>3.295227129213883</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>6.462484272827225</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>9.629741416440567</v>
-      </c>
-      <c r="O9" t="n">
-        <v>12.79699856005391</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="R9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="S9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="T9" t="n">
-        <v>9.950635850029798</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="U9" t="n">
-        <v>9.950635850029798</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="V9" t="n">
-        <v>9.950635850029798</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="W9" t="n">
-        <v>9.950635850029798</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="X9" t="n">
-        <v>6.719070557086891</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.719070557086891</v>
+        <v>3.487505264143985</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>546.6874761572445</v>
+        <v>439.5571809656791</v>
       </c>
       <c r="C11" t="n">
-        <v>395.8837403609883</v>
+        <v>439.5571809656791</v>
       </c>
       <c r="D11" t="n">
-        <v>395.8837403609883</v>
+        <v>439.5571809656791</v>
       </c>
       <c r="E11" t="n">
-        <v>395.8837403609883</v>
+        <v>439.5571809656791</v>
       </c>
       <c r="F11" t="n">
-        <v>205.4817875132641</v>
+        <v>249.1552281179549</v>
       </c>
       <c r="G11" t="n">
-        <v>15.07983466553976</v>
+        <v>249.1552281179549</v>
       </c>
       <c r="H11" t="n">
-        <v>15.07983466553976</v>
+        <v>78.57630442554807</v>
       </c>
       <c r="I11" t="n">
         <v>15.07983466553976</v>
       </c>
       <c r="J11" t="n">
-        <v>15.07983466553976</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K11" t="n">
-        <v>184.7866959522389</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="L11" t="n">
-        <v>231.5075384329989</v>
+        <v>302.0457673881833</v>
       </c>
       <c r="M11" t="n">
-        <v>418.1204924190534</v>
+        <v>488.6587213742379</v>
       </c>
       <c r="N11" t="n">
-        <v>604.733446405108</v>
+        <v>675.2716753602924</v>
       </c>
       <c r="O11" t="n">
-        <v>753.9917332769882</v>
+        <v>753.991733276988</v>
       </c>
       <c r="P11" t="n">
-        <v>753.9917332769882</v>
+        <v>753.991733276988</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769882</v>
+        <v>753.991733276988</v>
       </c>
       <c r="R11" t="n">
         <v>737.0894290049688</v>
       </c>
       <c r="S11" t="n">
-        <v>737.0894290049688</v>
+        <v>687.2220245550898</v>
       </c>
       <c r="T11" t="n">
-        <v>737.0894290049688</v>
+        <v>642.4567546088763</v>
       </c>
       <c r="U11" t="n">
-        <v>737.0894290049688</v>
+        <v>642.4567546088763</v>
       </c>
       <c r="V11" t="n">
-        <v>737.0894290049688</v>
+        <v>629.9591338134034</v>
       </c>
       <c r="W11" t="n">
-        <v>737.0894290049688</v>
+        <v>629.9591338134034</v>
       </c>
       <c r="X11" t="n">
-        <v>737.0894290049688</v>
+        <v>629.9591338134034</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.6874761572445</v>
+        <v>629.9591338134034</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>174.7914425907164</v>
+        <v>220.231540662195</v>
       </c>
       <c r="C12" t="n">
-        <v>165.3269098924355</v>
+        <v>210.7670079639142</v>
       </c>
       <c r="D12" t="n">
-        <v>165.3269098924355</v>
+        <v>210.7670079639142</v>
       </c>
       <c r="E12" t="n">
-        <v>165.3269098924355</v>
+        <v>210.7670079639142</v>
       </c>
       <c r="F12" t="n">
-        <v>165.3269098924355</v>
+        <v>50.33929168115824</v>
       </c>
       <c r="G12" t="n">
-        <v>15.07983466553976</v>
+        <v>50.33929168115824</v>
       </c>
       <c r="H12" t="n">
-        <v>15.07983466553976</v>
+        <v>50.33929168115824</v>
       </c>
       <c r="I12" t="n">
-        <v>15.07983466553976</v>
+        <v>50.33929168115824</v>
       </c>
       <c r="J12" t="n">
         <v>15.07983466553976</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142008</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L12" t="n">
         <v>170.3760798097941</v>
@@ -5130,40 +5130,40 @@
         <v>352.0527264137995</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998541</v>
+        <v>538.6656803998538</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188883</v>
+        <v>670.3666200188882</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769882</v>
+        <v>753.991733276988</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.9917332769882</v>
+        <v>747.0528889596536</v>
       </c>
       <c r="R12" t="n">
-        <v>753.9917332769882</v>
+        <v>747.0528889596536</v>
       </c>
       <c r="S12" t="n">
-        <v>563.5897804292639</v>
+        <v>733.4745786900208</v>
       </c>
       <c r="T12" t="n">
-        <v>526.3951749217665</v>
+        <v>696.2799731825235</v>
       </c>
       <c r="U12" t="n">
-        <v>466.7186038674021</v>
+        <v>636.603402128159</v>
       </c>
       <c r="V12" t="n">
-        <v>403.5866273397916</v>
+        <v>573.4714256005485</v>
       </c>
       <c r="W12" t="n">
-        <v>314.1357996388383</v>
+        <v>484.0205978995953</v>
       </c>
       <c r="X12" t="n">
-        <v>274.57554682429</v>
+        <v>444.460345085047</v>
       </c>
       <c r="Y12" t="n">
-        <v>228.882595328373</v>
+        <v>398.7673935891301</v>
       </c>
     </row>
     <row r="13">
@@ -5179,67 +5179,67 @@
         <v>15.07983466553976</v>
       </c>
       <c r="D13" t="n">
-        <v>47.71579242887331</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="E13" t="n">
-        <v>47.71579242887331</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="F13" t="n">
-        <v>86.54496054414828</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="G13" t="n">
-        <v>86.54496054414828</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="H13" t="n">
-        <v>86.54496054414828</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="I13" t="n">
-        <v>86.54496054414828</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="J13" t="n">
-        <v>86.54496054414828</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="K13" t="n">
-        <v>86.54496054414828</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="L13" t="n">
-        <v>111.5789214220066</v>
+        <v>40.40781665231077</v>
       </c>
       <c r="M13" t="n">
-        <v>262.9810061886392</v>
+        <v>191.8099014189434</v>
       </c>
       <c r="N13" t="n">
-        <v>262.9810061886392</v>
+        <v>351.821727134892</v>
       </c>
       <c r="O13" t="n">
-        <v>402.2436925423773</v>
+        <v>351.821727134892</v>
       </c>
       <c r="P13" t="n">
-        <v>520.716661142668</v>
+        <v>470.2946957351828</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.716661142668</v>
+        <v>520.7166611426676</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633081</v>
+        <v>495.1795934633078</v>
       </c>
       <c r="S13" t="n">
-        <v>437.311128601578</v>
+        <v>437.3111286015778</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578859</v>
+        <v>391.2370939578857</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604134</v>
+        <v>279.6125557604132</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064921</v>
+        <v>211.975433506492</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117137</v>
+        <v>98.68003660117131</v>
       </c>
       <c r="X13" t="n">
-        <v>54.4667121009949</v>
+        <v>54.46671210099488</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553976</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>373.1878275815395</v>
+        <v>642.4567546088763</v>
       </c>
       <c r="C14" t="n">
-        <v>199.3926425026395</v>
+        <v>642.4567546088763</v>
       </c>
       <c r="D14" t="n">
-        <v>199.3926425026395</v>
+        <v>642.4567546088763</v>
       </c>
       <c r="E14" t="n">
-        <v>199.3926425026395</v>
+        <v>459.3802101209966</v>
       </c>
       <c r="F14" t="n">
-        <v>199.3926425026395</v>
+        <v>268.9782572732723</v>
       </c>
       <c r="G14" t="n">
-        <v>185.6587583579465</v>
+        <v>78.576304425548</v>
       </c>
       <c r="H14" t="n">
-        <v>15.07983466553976</v>
+        <v>78.576304425548</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553976</v>
@@ -5279,49 +5279,49 @@
         <v>115.4328134021288</v>
       </c>
       <c r="K14" t="n">
-        <v>285.139674688828</v>
+        <v>115.4902538590853</v>
       </c>
       <c r="L14" t="n">
-        <v>346.5451906122114</v>
+        <v>162.2110963398453</v>
       </c>
       <c r="M14" t="n">
-        <v>533.1581445982659</v>
+        <v>243.0729954267925</v>
       </c>
       <c r="N14" t="n">
-        <v>719.7710985843205</v>
+        <v>318.4008885624848</v>
       </c>
       <c r="O14" t="n">
-        <v>753.9917332769882</v>
+        <v>505.0138425485393</v>
       </c>
       <c r="P14" t="n">
-        <v>753.9917332769882</v>
+        <v>666.4395714324986</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769882</v>
+        <v>753.991733276988</v>
       </c>
       <c r="R14" t="n">
-        <v>753.9917332769882</v>
+        <v>737.0894290049689</v>
       </c>
       <c r="S14" t="n">
-        <v>753.9917332769882</v>
+        <v>687.2220245550898</v>
       </c>
       <c r="T14" t="n">
-        <v>753.9917332769882</v>
+        <v>642.4567546088763</v>
       </c>
       <c r="U14" t="n">
-        <v>753.9917332769882</v>
+        <v>642.4567546088763</v>
       </c>
       <c r="V14" t="n">
-        <v>753.9917332769882</v>
+        <v>642.4567546088763</v>
       </c>
       <c r="W14" t="n">
-        <v>753.9917332769882</v>
+        <v>642.4567546088763</v>
       </c>
       <c r="X14" t="n">
-        <v>753.9917332769882</v>
+        <v>642.4567546088763</v>
       </c>
       <c r="Y14" t="n">
-        <v>563.5897804292638</v>
+        <v>642.4567546088763</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>405.706237906465</v>
+        <v>85.86314415338484</v>
       </c>
       <c r="C15" t="n">
-        <v>396.2417052081842</v>
+        <v>76.39861145510402</v>
       </c>
       <c r="D15" t="n">
-        <v>338.8901137710211</v>
+        <v>76.39861145510402</v>
       </c>
       <c r="E15" t="n">
-        <v>165.3269098924355</v>
+        <v>76.39861145510402</v>
       </c>
       <c r="F15" t="n">
-        <v>165.3269098924355</v>
+        <v>76.39861145510402</v>
       </c>
       <c r="G15" t="n">
-        <v>15.07983466553976</v>
+        <v>76.39861145510402</v>
       </c>
       <c r="H15" t="n">
         <v>15.07983466553976</v>
@@ -5358,49 +5358,49 @@
         <v>15.07983466553976</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142008</v>
+        <v>53.04316068141992</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097941</v>
+        <v>170.376079809794</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137994</v>
+        <v>352.0527264137993</v>
       </c>
       <c r="N15" t="n">
-        <v>538.665680399854</v>
+        <v>538.6656803998538</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188883</v>
+        <v>670.3666200188882</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769882</v>
+        <v>753.991733276988</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.9917332769882</v>
+        <v>747.0528889596536</v>
       </c>
       <c r="R15" t="n">
-        <v>753.9917332769882</v>
+        <v>610.9722821019994</v>
       </c>
       <c r="S15" t="n">
-        <v>740.4134230073554</v>
+        <v>420.5703292542752</v>
       </c>
       <c r="T15" t="n">
-        <v>703.218817499858</v>
+        <v>383.3757237467779</v>
       </c>
       <c r="U15" t="n">
-        <v>643.5422464454937</v>
+        <v>323.6991526924135</v>
       </c>
       <c r="V15" t="n">
-        <v>580.4102699178833</v>
+        <v>260.5671761648031</v>
       </c>
       <c r="W15" t="n">
-        <v>490.9594422169301</v>
+        <v>171.1163484638499</v>
       </c>
       <c r="X15" t="n">
-        <v>451.3991894023819</v>
+        <v>131.5560956493017</v>
       </c>
       <c r="Y15" t="n">
-        <v>405.706237906465</v>
+        <v>85.86314415338484</v>
       </c>
     </row>
     <row r="16">
@@ -5419,37 +5419,37 @@
         <v>15.07983466553976</v>
       </c>
       <c r="E16" t="n">
-        <v>51.18723637697425</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="F16" t="n">
-        <v>90.01640449224931</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="G16" t="n">
-        <v>99.3694188259056</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="H16" t="n">
-        <v>99.3694188259056</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="I16" t="n">
-        <v>99.3694188259056</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="J16" t="n">
-        <v>99.3694188259056</v>
+        <v>72.40940466999712</v>
       </c>
       <c r="K16" t="n">
-        <v>209.3765199996447</v>
+        <v>182.4165058437362</v>
       </c>
       <c r="L16" t="n">
-        <v>353.9130034254848</v>
+        <v>326.9529892695764</v>
       </c>
       <c r="M16" t="n">
-        <v>353.9130034254848</v>
+        <v>360.7048354267185</v>
       </c>
       <c r="N16" t="n">
-        <v>353.9130034254848</v>
+        <v>520.7166611426671</v>
       </c>
       <c r="O16" t="n">
-        <v>402.2436925423763</v>
+        <v>520.7166611426671</v>
       </c>
       <c r="P16" t="n">
         <v>520.7166611426671</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961944</v>
+        <v>463.3923242961945</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040788</v>
+        <v>410.101590504079</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210057</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718621</v>
+        <v>294.5907522718623</v>
       </c>
       <c r="F17" t="n">
-        <v>187.770975794055</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G17" t="n">
         <v>65.15430707116207</v>
@@ -5519,46 +5519,46 @@
         <v>70.95335735993308</v>
       </c>
       <c r="L17" t="n">
-        <v>257.5663113459876</v>
+        <v>117.6741998406931</v>
       </c>
       <c r="M17" t="n">
-        <v>338.4282104329347</v>
+        <v>198.5360989276403</v>
       </c>
       <c r="N17" t="n">
-        <v>525.0411644189893</v>
+        <v>273.8639920633326</v>
       </c>
       <c r="O17" t="n">
-        <v>559.261799111657</v>
+        <v>308.0846267560003</v>
       </c>
       <c r="P17" t="n">
-        <v>578.2192973559232</v>
+        <v>308.0846267560003</v>
       </c>
       <c r="Q17" t="n">
-        <v>578.2192973559232</v>
+        <v>462.1637696110809</v>
       </c>
       <c r="R17" t="n">
-        <v>679.7597616450946</v>
+        <v>563.7042339002522</v>
       </c>
       <c r="S17" t="n">
-        <v>679.7597616450946</v>
+        <v>632.9356035051031</v>
       </c>
       <c r="T17" t="n">
-        <v>753.9917332769882</v>
+        <v>707.1675751369967</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769882</v>
+        <v>753.991733276988</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879298</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235032</v>
+        <v>689.4655660235037</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530773</v>
+        <v>626.5008757530777</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122032</v>
+        <v>540.8060308122035</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>182.7858747338153</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="C18" t="n">
-        <v>182.7858747338153</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="D18" t="n">
-        <v>22.0057584948471</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="E18" t="n">
-        <v>22.0057584948471</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="F18" t="n">
-        <v>15.07983466553976</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="G18" t="n">
-        <v>15.07983466553976</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="H18" t="n">
-        <v>15.07983466553976</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="I18" t="n">
-        <v>15.07983466553976</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="J18" t="n">
         <v>15.07983466553976</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142008</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L18" t="n">
         <v>170.3760798097941</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137994</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N18" t="n">
         <v>538.665680399854</v>
@@ -5613,31 +5613,31 @@
         <v>753.9917332769882</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9917332769882</v>
+        <v>747.0528889596537</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9917332769882</v>
+        <v>747.0528889596537</v>
       </c>
       <c r="S18" t="n">
-        <v>563.5897804292639</v>
+        <v>747.0528889596537</v>
       </c>
       <c r="T18" t="n">
-        <v>373.1878275815396</v>
+        <v>747.0528889596537</v>
       </c>
       <c r="U18" t="n">
-        <v>182.7858747338153</v>
+        <v>747.0528889596537</v>
       </c>
       <c r="V18" t="n">
-        <v>182.7858747338153</v>
+        <v>747.0528889596537</v>
       </c>
       <c r="W18" t="n">
-        <v>182.7858747338153</v>
+        <v>599.1360381978867</v>
       </c>
       <c r="X18" t="n">
-        <v>182.7858747338153</v>
+        <v>408.7340853501624</v>
       </c>
       <c r="Y18" t="n">
-        <v>182.7858747338153</v>
+        <v>218.3321325024382</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961943</v>
+        <v>463.3923242961941</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040788</v>
+        <v>410.1015905040786</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210057</v>
+        <v>369.369783721005</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718626</v>
+        <v>294.5907522718618</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940555</v>
+        <v>187.7709757940547</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116201</v>
+        <v>65.15430707116207</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553976</v>
       </c>
       <c r="I20" t="n">
-        <v>43.19001312343906</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="J20" t="n">
-        <v>43.19001312343906</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="K20" t="n">
-        <v>43.19001312343906</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="L20" t="n">
-        <v>89.91085560419907</v>
+        <v>117.6741998406931</v>
       </c>
       <c r="M20" t="n">
-        <v>170.7727546911462</v>
+        <v>198.5360989276403</v>
       </c>
       <c r="N20" t="n">
-        <v>357.3857086772008</v>
+        <v>273.8639920633326</v>
       </c>
       <c r="O20" t="n">
-        <v>391.6063433698685</v>
+        <v>308.0846267560003</v>
       </c>
       <c r="P20" t="n">
-        <v>578.219297355923</v>
+        <v>308.0846267560003</v>
       </c>
       <c r="Q20" t="n">
-        <v>578.219297355923</v>
+        <v>462.1637696110809</v>
       </c>
       <c r="R20" t="n">
-        <v>679.7597616450945</v>
+        <v>563.7042339002522</v>
       </c>
       <c r="S20" t="n">
-        <v>679.7597616450945</v>
+        <v>632.9356035051031</v>
       </c>
       <c r="T20" t="n">
-        <v>753.9917332769882</v>
+        <v>707.1675751369967</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769882</v>
+        <v>753.991733276988</v>
       </c>
       <c r="V20" t="n">
         <v>730.3229325879299</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235034</v>
+        <v>689.4655660235032</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530774</v>
+        <v>626.5008757530773</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122032</v>
+        <v>540.8060308122031</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>617.9111264193339</v>
+        <v>379.1122487414065</v>
       </c>
       <c r="C21" t="n">
-        <v>428.4988521522976</v>
+        <v>379.1122487414065</v>
       </c>
       <c r="D21" t="n">
-        <v>267.7187359133293</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="E21" t="n">
-        <v>267.7187359133293</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="F21" t="n">
-        <v>267.7187359133293</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="G21" t="n">
-        <v>117.4716606864335</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="H21" t="n">
-        <v>15.07983466553976</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="I21" t="n">
-        <v>15.07983466553976</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="J21" t="n">
         <v>15.07983466553976</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142008</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L21" t="n">
         <v>170.3760798097941</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264137994</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N21" t="n">
         <v>538.665680399854</v>
@@ -5850,31 +5850,31 @@
         <v>753.9917332769882</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.9917332769882</v>
+        <v>747.0528889596537</v>
       </c>
       <c r="R21" t="n">
-        <v>617.9111264193339</v>
+        <v>747.0528889596537</v>
       </c>
       <c r="S21" t="n">
-        <v>617.9111264193339</v>
+        <v>747.0528889596537</v>
       </c>
       <c r="T21" t="n">
-        <v>617.9111264193339</v>
+        <v>747.0528889596537</v>
       </c>
       <c r="U21" t="n">
-        <v>617.9111264193339</v>
+        <v>556.6509361119295</v>
       </c>
       <c r="V21" t="n">
-        <v>617.9111264193339</v>
+        <v>379.1122487414065</v>
       </c>
       <c r="W21" t="n">
-        <v>617.9111264193339</v>
+        <v>379.1122487414065</v>
       </c>
       <c r="X21" t="n">
-        <v>617.9111264193339</v>
+        <v>379.1122487414065</v>
       </c>
       <c r="Y21" t="n">
-        <v>617.9111264193339</v>
+        <v>379.1122487414065</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="C22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="D22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="E22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="F22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="G22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="H22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="I22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="J22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="K22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="L22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="M22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="N22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="O22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="P22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="Q22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="R22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="S22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="T22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="U22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="V22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="W22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="X22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.9917332769882</v>
+        <v>15.07983466553976</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961944</v>
+        <v>463.392324296194</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040789</v>
+        <v>410.1015905040784</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210048</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718618</v>
+        <v>294.5907522718617</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940547</v>
+        <v>187.7709757940546</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116201</v>
+        <v>65.15430707116207</v>
       </c>
       <c r="H23" t="n">
         <v>15.07983466553976</v>
       </c>
       <c r="I23" t="n">
-        <v>15.07983466553976</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="J23" t="n">
-        <v>15.07983466553976</v>
+        <v>257.5663113459876</v>
       </c>
       <c r="K23" t="n">
-        <v>201.6927886515943</v>
+        <v>257.5663113459876</v>
       </c>
       <c r="L23" t="n">
-        <v>248.4136311323543</v>
+        <v>444.1792653320422</v>
       </c>
       <c r="M23" t="n">
-        <v>329.2755302193015</v>
+        <v>525.0411644189894</v>
       </c>
       <c r="N23" t="n">
-        <v>404.6034233549937</v>
+        <v>600.3690575546817</v>
       </c>
       <c r="O23" t="n">
-        <v>438.8240580476614</v>
+        <v>634.5896922473494</v>
       </c>
       <c r="P23" t="n">
-        <v>625.4370120337159</v>
+        <v>634.5896922473494</v>
       </c>
       <c r="Q23" t="n">
-        <v>637.9362055321454</v>
+        <v>753.9917332769882</v>
       </c>
       <c r="R23" t="n">
-        <v>637.9362055321454</v>
+        <v>753.9917332769882</v>
       </c>
       <c r="S23" t="n">
-        <v>707.1675751369964</v>
+        <v>753.9917332769882</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1675751369964</v>
+        <v>753.9917332769882</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769879</v>
+        <v>753.9917332769882</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879298</v>
+        <v>730.3229325879299</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235034</v>
+        <v>689.4655660235032</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530775</v>
+        <v>626.5008757530773</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122033</v>
+        <v>540.8060308122029</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.07983466553976</v>
+        <v>556.6509361119295</v>
       </c>
       <c r="C24" t="n">
-        <v>15.07983466553976</v>
+        <v>556.6509361119295</v>
       </c>
       <c r="D24" t="n">
-        <v>15.07983466553976</v>
+        <v>395.8708198729612</v>
       </c>
       <c r="E24" t="n">
-        <v>15.07983466553976</v>
+        <v>395.8708198729612</v>
       </c>
       <c r="F24" t="n">
-        <v>15.07983466553976</v>
+        <v>235.4431035902053</v>
       </c>
       <c r="G24" t="n">
-        <v>15.07983466553976</v>
+        <v>85.19602836330949</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07983466553976</v>
+        <v>85.19602836330949</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07983466553976</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="J24" t="n">
         <v>15.07983466553976</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142007</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097941</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137994</v>
+        <v>352.0527264137993</v>
       </c>
       <c r="N24" t="n">
         <v>538.665680399854</v>
@@ -6087,31 +6087,31 @@
         <v>753.9917332769882</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9917332769882</v>
+        <v>747.0528889596537</v>
       </c>
       <c r="R24" t="n">
-        <v>753.9917332769882</v>
+        <v>747.0528889596537</v>
       </c>
       <c r="S24" t="n">
-        <v>563.5897804292639</v>
+        <v>556.6509361119295</v>
       </c>
       <c r="T24" t="n">
-        <v>563.5897804292639</v>
+        <v>556.6509361119295</v>
       </c>
       <c r="U24" t="n">
-        <v>563.5897804292639</v>
+        <v>556.6509361119295</v>
       </c>
       <c r="V24" t="n">
-        <v>373.1878275815396</v>
+        <v>556.6509361119295</v>
       </c>
       <c r="W24" t="n">
-        <v>373.1878275815396</v>
+        <v>556.6509361119295</v>
       </c>
       <c r="X24" t="n">
-        <v>373.1878275815396</v>
+        <v>556.6509361119295</v>
       </c>
       <c r="Y24" t="n">
-        <v>182.7858747338154</v>
+        <v>556.6509361119295</v>
       </c>
     </row>
     <row r="25">
@@ -6203,34 +6203,34 @@
         <v>1020.89842248961</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874104</v>
+        <v>882.7966579874101</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942526</v>
+        <v>757.2538204942523</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350252</v>
+        <v>597.6637583350249</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471339</v>
+        <v>406.0329511471335</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141566</v>
+        <v>198.6052517141562</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845012</v>
+        <v>63.71974859845017</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514204</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J26" t="n">
         <v>171.2527996589549</v>
       </c>
       <c r="K26" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528779</v>
       </c>
       <c r="L26" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523989</v>
       </c>
       <c r="M26" t="n">
         <v>926.2253300581071</v>
@@ -6248,7 +6248,7 @@
         <v>1777.417797666885</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.834970757102</v>
+        <v>1795.834970757103</v>
       </c>
       <c r="S26" t="n">
         <v>1781.660986883923</v>
@@ -6260,13 +6260,13 @@
         <v>1735.552985020825</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621683</v>
+        <v>1627.073153621682</v>
       </c>
       <c r="W26" t="n">
         <v>1501.404756347172</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366661</v>
       </c>
       <c r="Y26" t="n">
         <v>1183.123159715703</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>644.8040543843932</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="C27" t="n">
-        <v>455.3917801173569</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="D27" t="n">
-        <v>294.6116638783887</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="E27" t="n">
-        <v>294.6116638783887</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="F27" t="n">
-        <v>294.6116638783887</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="G27" t="n">
-        <v>144.3645886514929</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="H27" t="n">
-        <v>144.3645886514929</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514204</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514204</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102235</v>
+        <v>73.88002543102237</v>
       </c>
       <c r="L27" t="n">
         <v>191.2129445593964</v>
@@ -6315,40 +6315,40 @@
         <v>372.8895911634017</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7945675741607</v>
+        <v>577.7945675741609</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931951</v>
+        <v>709.4955071931952</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512949</v>
+        <v>793.1206204512951</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512949</v>
+        <v>786.1817761339606</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512949</v>
+        <v>786.1817761339606</v>
       </c>
       <c r="S27" t="n">
-        <v>793.1206204512949</v>
+        <v>786.1817761339606</v>
       </c>
       <c r="T27" t="n">
-        <v>791.6194355204977</v>
+        <v>784.6805912031634</v>
       </c>
       <c r="U27" t="n">
-        <v>767.6362850428336</v>
+        <v>760.6974407254992</v>
       </c>
       <c r="V27" t="n">
-        <v>740.1977290919233</v>
+        <v>517.6177226291333</v>
       </c>
       <c r="W27" t="n">
-        <v>686.4403219676702</v>
+        <v>248.2191533594246</v>
       </c>
       <c r="X27" t="n">
-        <v>682.5734897298222</v>
+        <v>45.91623033435879</v>
       </c>
       <c r="Y27" t="n">
-        <v>672.5739588106055</v>
+        <v>35.91669941514206</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514204</v>
+        <v>71.42585097558468</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91669941514204</v>
+        <v>117.9831448320931</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91669941514204</v>
+        <v>185.6022241026505</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91669941514204</v>
+        <v>256.6927473213088</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91669941514204</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91669941514204</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="H28" t="n">
-        <v>35.91669941514204</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="I28" t="n">
-        <v>35.91669941514204</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="J28" t="n">
-        <v>71.1675669528361</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="K28" t="n">
-        <v>71.1675669528361</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="L28" t="n">
-        <v>71.1675669528361</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="M28" t="n">
-        <v>71.1675669528361</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="N28" t="n">
-        <v>266.1625141760086</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="O28" t="n">
-        <v>266.1625141760086</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1625141760086</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760086</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760086</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909788</v>
+        <v>243.987469890979</v>
       </c>
       <c r="T28" t="n">
-        <v>233.606855823987</v>
+        <v>233.6068558239871</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032147</v>
+        <v>157.6757382032148</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259936</v>
+        <v>125.7320365259937</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737315</v>
+        <v>48.13006019737323</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389693</v>
+        <v>39.61015627389698</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514204</v>
+        <v>35.91669941514206</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>198.6052517141559</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859844931</v>
+        <v>63.71974859845018</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514204</v>
@@ -6464,22 +6464,22 @@
         <v>171.2527996589549</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528779</v>
+        <v>375.9427824528771</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523989</v>
+        <v>634.0135279523981</v>
       </c>
       <c r="M29" t="n">
-        <v>926.225330058107</v>
+        <v>926.2253300581062</v>
       </c>
       <c r="N29" t="n">
         <v>1212.90312621256</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.473663923988</v>
       </c>
       <c r="P29" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315171</v>
       </c>
       <c r="Q29" t="n">
         <v>1777.417797666884</v>
@@ -6488,22 +6488,22 @@
         <v>1795.834970757102</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.660986883923</v>
+        <v>1781.660986883922</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.58913751441</v>
+        <v>1772.589137514409</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020825</v>
+        <v>1735.552985020824</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621683</v>
+        <v>1627.073153621682</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347171</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366661</v>
       </c>
       <c r="Y29" t="n">
         <v>1183.123159715703</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>62.75578159275895</v>
+        <v>98.27218334470552</v>
       </c>
       <c r="C30" t="n">
-        <v>62.75578159275895</v>
+        <v>98.27218334470552</v>
       </c>
       <c r="D30" t="n">
-        <v>62.75578159275895</v>
+        <v>98.27218334470552</v>
       </c>
       <c r="E30" t="n">
-        <v>35.91669941514204</v>
+        <v>98.27218334470552</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91669941514204</v>
+        <v>98.27218334470552</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91669941514204</v>
+        <v>98.27218334470552</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514204</v>
+        <v>98.27218334470552</v>
       </c>
       <c r="I30" t="n">
         <v>35.91669941514204</v>
@@ -6543,7 +6543,7 @@
         <v>35.91669941514204</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102235</v>
+        <v>73.88002543102237</v>
       </c>
       <c r="L30" t="n">
         <v>191.2129445593964</v>
@@ -6552,40 +6552,40 @@
         <v>372.8895911634017</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7945675741607</v>
+        <v>577.7945675741609</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931951</v>
+        <v>709.4955071931952</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512949</v>
+        <v>793.1206204512951</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512949</v>
+        <v>786.1817761339606</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512949</v>
+        <v>650.1011692763065</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512949</v>
+        <v>650.1011692763065</v>
       </c>
       <c r="T30" t="n">
-        <v>575.9782733750421</v>
+        <v>432.9588222000536</v>
       </c>
       <c r="U30" t="n">
-        <v>551.9951228973779</v>
+        <v>193.3345095769338</v>
       </c>
       <c r="V30" t="n">
-        <v>524.5565669464676</v>
+        <v>165.8959536260235</v>
       </c>
       <c r="W30" t="n">
-        <v>470.7991598222144</v>
+        <v>112.1385465017704</v>
       </c>
       <c r="X30" t="n">
-        <v>251.2911654389108</v>
+        <v>108.2717142639223</v>
       </c>
       <c r="Y30" t="n">
-        <v>241.291634519694</v>
+        <v>98.27218334470552</v>
       </c>
     </row>
     <row r="31">
@@ -6619,28 +6619,28 @@
         <v>35.91669941514204</v>
       </c>
       <c r="J31" t="n">
-        <v>128.2293909268232</v>
+        <v>35.91669941514204</v>
       </c>
       <c r="K31" t="n">
-        <v>128.2293909268232</v>
+        <v>180.9069220961049</v>
       </c>
       <c r="L31" t="n">
-        <v>128.2293909268232</v>
+        <v>180.9069220961049</v>
       </c>
       <c r="M31" t="n">
-        <v>128.2293909268232</v>
+        <v>180.9069220961049</v>
       </c>
       <c r="N31" t="n">
-        <v>128.2293909268232</v>
+        <v>180.9069220961049</v>
       </c>
       <c r="O31" t="n">
-        <v>256.2082727013258</v>
+        <v>180.9069220961049</v>
       </c>
       <c r="P31" t="n">
-        <v>256.2082727013258</v>
+        <v>180.9069220961049</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.2082727013258</v>
+        <v>266.162514176009</v>
       </c>
       <c r="R31" t="n">
         <v>266.162514176009</v>
@@ -6680,10 +6680,10 @@
         <v>877.524294580668</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601003</v>
+        <v>752.8175276601002</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734631</v>
+        <v>594.063536073463</v>
       </c>
       <c r="F32" t="n">
         <v>403.2687994581618</v>
@@ -6707,16 +6707,16 @@
         <v>636.2158862857848</v>
       </c>
       <c r="M32" t="n">
-        <v>928.5677735154875</v>
+        <v>929.2471211596887</v>
       </c>
       <c r="N32" t="n">
-        <v>1216.065002438136</v>
+        <v>1216.744350082338</v>
       </c>
       <c r="O32" t="n">
-        <v>1462.454972917761</v>
+        <v>1463.134320561962</v>
       </c>
       <c r="P32" t="n">
-        <v>1659.683256077139</v>
+        <v>1660.362603721341</v>
       </c>
       <c r="Q32" t="n">
         <v>1783.037972197048</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50.85392500046561</v>
+        <v>454.7834401899436</v>
       </c>
       <c r="C33" t="n">
-        <v>50.85392500046561</v>
+        <v>454.7834401899436</v>
       </c>
       <c r="D33" t="n">
-        <v>50.85392500046561</v>
+        <v>454.7834401899436</v>
       </c>
       <c r="E33" t="n">
-        <v>50.85392500046561</v>
+        <v>454.7834401899436</v>
       </c>
       <c r="F33" t="n">
-        <v>35.66075944394097</v>
+        <v>294.3557239071877</v>
       </c>
       <c r="G33" t="n">
-        <v>35.66075944394097</v>
+        <v>144.1086486802919</v>
       </c>
       <c r="H33" t="n">
-        <v>35.66075944394097</v>
+        <v>144.1086486802919</v>
       </c>
       <c r="I33" t="n">
         <v>35.66075944394097</v>
@@ -6798,31 +6798,31 @@
         <v>792.864680480094</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.864680480094</v>
+        <v>786.7909111131379</v>
       </c>
       <c r="R33" t="n">
-        <v>792.864680480094</v>
+        <v>786.7909111131379</v>
       </c>
       <c r="S33" t="n">
-        <v>599.3386286417058</v>
+        <v>786.7909111131379</v>
       </c>
       <c r="T33" t="n">
-        <v>382.196281565453</v>
+        <v>786.1257967549309</v>
       </c>
       <c r="U33" t="n">
-        <v>359.0492016603789</v>
+        <v>546.501484131811</v>
       </c>
       <c r="V33" t="n">
-        <v>332.4467162820588</v>
+        <v>519.8989987534909</v>
       </c>
       <c r="W33" t="n">
-        <v>279.5253797303959</v>
+        <v>466.977662201828</v>
       </c>
       <c r="X33" t="n">
-        <v>276.494618065138</v>
+        <v>463.9469005365701</v>
       </c>
       <c r="Y33" t="n">
-        <v>50.85392500046561</v>
+        <v>454.7834401899436</v>
       </c>
     </row>
     <row r="34">
@@ -6856,13 +6856,13 @@
         <v>83.66394155277771</v>
       </c>
       <c r="J34" t="n">
-        <v>83.66394155277771</v>
+        <v>105.7785573209663</v>
       </c>
       <c r="K34" t="n">
-        <v>83.66394155277771</v>
+        <v>105.7785573209663</v>
       </c>
       <c r="L34" t="n">
-        <v>83.66394155277771</v>
+        <v>105.7785573209663</v>
       </c>
       <c r="M34" t="n">
         <v>105.7785573209663</v>
@@ -6935,22 +6935,22 @@
         <v>51.57576979998706</v>
       </c>
       <c r="J35" t="n">
-        <v>51.57576979998706</v>
+        <v>244.900543598745</v>
       </c>
       <c r="K35" t="n">
-        <v>51.57576979998706</v>
+        <v>244.900543598745</v>
       </c>
       <c r="L35" t="n">
-        <v>309.4319710763153</v>
+        <v>291.621386079505</v>
       </c>
       <c r="M35" t="n">
-        <v>567.2881723526436</v>
+        <v>372.4832851664522</v>
       </c>
       <c r="N35" t="n">
-        <v>712.2149994360778</v>
+        <v>447.8111783021445</v>
       </c>
       <c r="O35" t="n">
-        <v>746.4356341287455</v>
+        <v>705.6673795784727</v>
       </c>
       <c r="P35" t="n">
         <v>746.4356341287455</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>223.8000133780462</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="C36" t="n">
-        <v>223.8000133780462</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="D36" t="n">
-        <v>223.8000133780462</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="E36" t="n">
-        <v>50.23680949946069</v>
+        <v>597.5387375898354</v>
       </c>
       <c r="F36" t="n">
-        <v>50.23680949946069</v>
+        <v>437.1110213070795</v>
       </c>
       <c r="G36" t="n">
-        <v>50.23680949946069</v>
+        <v>286.8639460801837</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83686474960228</v>
+        <v>159.8583656905128</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83686474960228</v>
+        <v>73.84208735960493</v>
       </c>
       <c r="J36" t="n">
         <v>20.83686474960228</v>
@@ -7023,7 +7023,7 @@
         <v>176.1331098938567</v>
       </c>
       <c r="M36" t="n">
-        <v>357.8097564978621</v>
+        <v>357.809756497862</v>
       </c>
       <c r="N36" t="n">
         <v>562.7147329086212</v>
@@ -7035,31 +7035,31 @@
         <v>778.0407857857554</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.0407857857554</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="R36" t="n">
-        <v>641.9601789281012</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="S36" t="n">
-        <v>641.9601789281012</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="T36" t="n">
-        <v>641.9601789281012</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="U36" t="n">
-        <v>402.3358663049813</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="V36" t="n">
-        <v>402.3358663049813</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="W36" t="n">
-        <v>402.3358663049813</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="X36" t="n">
-        <v>402.3358663049813</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="Y36" t="n">
-        <v>402.3358663049813</v>
+        <v>771.1019414684209</v>
       </c>
     </row>
     <row r="37">
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="C37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="D37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="E37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="F37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="G37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="R37" t="n">
         <v>56.03780166411075</v>
@@ -7135,10 +7135,10 @@
         <v>20.83686474960228</v>
       </c>
       <c r="X37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="Y37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960228</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>544.083381551352</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756363</v>
+        <v>477.7066225756362</v>
       </c>
       <c r="E38" t="n">
         <v>377.282638933851</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634018</v>
+        <v>244.8179102634017</v>
       </c>
       <c r="G38" t="n">
         <v>96.55628934786671</v>
@@ -7172,31 +7172,31 @@
         <v>51.57576979998706</v>
       </c>
       <c r="J38" t="n">
-        <v>51.57576979998706</v>
+        <v>244.900543598745</v>
       </c>
       <c r="K38" t="n">
-        <v>309.4319710763153</v>
+        <v>481.9958720754004</v>
       </c>
       <c r="L38" t="n">
-        <v>356.1528135570754</v>
+        <v>528.7167145561605</v>
       </c>
       <c r="M38" t="n">
-        <v>614.0090148334036</v>
+        <v>609.5786136431077</v>
       </c>
       <c r="N38" t="n">
-        <v>871.8652161097318</v>
+        <v>684.9065067788</v>
       </c>
       <c r="O38" t="n">
-        <v>906.0858508023995</v>
+        <v>719.1271414714677</v>
       </c>
       <c r="P38" t="n">
-        <v>1020.153696984131</v>
+        <v>719.1271414714677</v>
       </c>
       <c r="Q38" t="n">
-        <v>1020.153696984131</v>
+        <v>899.651098378126</v>
       </c>
       <c r="R38" t="n">
-        <v>1020.153696984131</v>
+        <v>976.0569450232889</v>
       </c>
       <c r="S38" t="n">
         <v>1020.153696984131</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>200.3325993647736</v>
+        <v>309.2955569856267</v>
       </c>
       <c r="C39" t="n">
-        <v>200.3325993647736</v>
+        <v>309.2955569856267</v>
       </c>
       <c r="D39" t="n">
-        <v>200.3325993647736</v>
+        <v>309.2955569856267</v>
       </c>
       <c r="E39" t="n">
-        <v>200.3325993647736</v>
+        <v>309.2955569856267</v>
       </c>
       <c r="F39" t="n">
-        <v>73.84208735960493</v>
+        <v>309.2955569856267</v>
       </c>
       <c r="G39" t="n">
-        <v>73.84208735960493</v>
+        <v>309.2955569856267</v>
       </c>
       <c r="H39" t="n">
-        <v>73.84208735960493</v>
+        <v>182.2899765959558</v>
       </c>
       <c r="I39" t="n">
         <v>73.84208735960493</v>
@@ -7260,7 +7260,7 @@
         <v>176.1331098938567</v>
       </c>
       <c r="M39" t="n">
-        <v>357.8097564978621</v>
+        <v>357.809756497862</v>
       </c>
       <c r="N39" t="n">
         <v>562.7147329086212</v>
@@ -7272,31 +7272,31 @@
         <v>778.0407857857554</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.0407857857554</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="R39" t="n">
-        <v>641.9601789281012</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="S39" t="n">
-        <v>641.9601789281012</v>
+        <v>577.5758896300327</v>
       </c>
       <c r="T39" t="n">
-        <v>641.9601789281012</v>
+        <v>360.4335425537799</v>
       </c>
       <c r="U39" t="n">
-        <v>641.9601789281012</v>
+        <v>360.4335425537799</v>
       </c>
       <c r="V39" t="n">
-        <v>641.9601789281012</v>
+        <v>360.4335425537799</v>
       </c>
       <c r="W39" t="n">
-        <v>378.8684522917087</v>
+        <v>309.2955569856267</v>
       </c>
       <c r="X39" t="n">
-        <v>378.8684522917087</v>
+        <v>309.2955569856267</v>
       </c>
       <c r="Y39" t="n">
-        <v>378.8684522917087</v>
+        <v>309.2955569856267</v>
       </c>
     </row>
     <row r="40">
@@ -7318,10 +7318,10 @@
         <v>20.83686474960228</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83686474960228</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83686474960228</v>
+        <v>56.03780166411075</v>
       </c>
       <c r="H40" t="n">
         <v>56.03780166411075</v>
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753163</v>
+        <v>818.4263542753167</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564246</v>
+        <v>708.127638956425</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465749</v>
+        <v>610.3878506465753</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706554</v>
+        <v>478.6008376706559</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660722</v>
+        <v>314.7730796660725</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J41" t="n">
-        <v>28.06597548400536</v>
+        <v>190.6518442323785</v>
       </c>
       <c r="K41" t="n">
-        <v>28.06597548400536</v>
+        <v>422.5915955308618</v>
       </c>
       <c r="L41" t="n">
-        <v>313.3864894880867</v>
+        <v>707.9121095349431</v>
       </c>
       <c r="M41" t="n">
-        <v>632.8480600983552</v>
+        <v>1027.373680145211</v>
       </c>
       <c r="N41" t="n">
-        <v>708.1759532340475</v>
+        <v>1341.301244804225</v>
       </c>
       <c r="O41" t="n">
-        <v>980.9962594500364</v>
+        <v>1375.521879496893</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.130484901259</v>
+        <v>1375.521879496893</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757532</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.58247835231</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.940325262768</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="T41" t="n">
         <v>1403.298774200268</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.065670889991</v>
+        <v>1394.065670889992</v>
       </c>
       <c r="V41" t="n">
         <v>1313.388888674157</v>
@@ -7454,7 +7454,7 @@
         <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181014</v>
+        <v>952.8480423181019</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>373.2163693078589</v>
+        <v>155.0715558736762</v>
       </c>
       <c r="C42" t="n">
-        <v>373.2163693078589</v>
+        <v>155.0715558736762</v>
       </c>
       <c r="D42" t="n">
-        <v>373.2163693078589</v>
+        <v>155.0715558736762</v>
       </c>
       <c r="E42" t="n">
-        <v>373.2163693078589</v>
+        <v>155.0715558736762</v>
       </c>
       <c r="F42" t="n">
-        <v>212.788653025103</v>
+        <v>155.0715558736762</v>
       </c>
       <c r="G42" t="n">
-        <v>81.07119809400801</v>
+        <v>155.0715558736762</v>
       </c>
       <c r="H42" t="n">
-        <v>81.07119809400801</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I42" t="n">
-        <v>81.07119809400801</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K42" t="n">
         <v>66.02930149988569</v>
@@ -7497,43 +7497,43 @@
         <v>183.3622206282597</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0388672322651</v>
+        <v>365.038867232265</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9438436430243</v>
+        <v>569.9438436430241</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6447832620586</v>
+        <v>701.6447832620585</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2698965201585</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.331052202824</v>
+        <v>778.3310522028239</v>
       </c>
       <c r="R42" t="n">
-        <v>642.2504453451699</v>
+        <v>642.2504453451697</v>
       </c>
       <c r="S42" t="n">
-        <v>642.2504453451699</v>
+        <v>448.7243935067816</v>
       </c>
       <c r="T42" t="n">
-        <v>642.2504453451699</v>
+        <v>448.7243935067816</v>
       </c>
       <c r="U42" t="n">
-        <v>642.2504453451699</v>
+        <v>448.7243935067816</v>
       </c>
       <c r="V42" t="n">
-        <v>399.1707272488039</v>
+        <v>448.7243935067816</v>
       </c>
       <c r="W42" t="n">
-        <v>373.2163693078589</v>
+        <v>380.7122489383486</v>
       </c>
       <c r="X42" t="n">
-        <v>373.2163693078589</v>
+        <v>380.7122489383486</v>
       </c>
       <c r="Y42" t="n">
-        <v>373.2163693078589</v>
+        <v>155.0715558736762</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D43" t="n">
-        <v>122.934823259123</v>
+        <v>31.79333183747644</v>
       </c>
       <c r="E43" t="n">
-        <v>122.934823259123</v>
+        <v>130.133623560695</v>
       </c>
       <c r="F43" t="n">
-        <v>122.934823259123</v>
+        <v>130.133623560695</v>
       </c>
       <c r="G43" t="n">
-        <v>122.934823259123</v>
+        <v>130.133623560695</v>
       </c>
       <c r="H43" t="n">
-        <v>122.934823259123</v>
+        <v>130.133623560695</v>
       </c>
       <c r="I43" t="n">
-        <v>122.934823259123</v>
+        <v>130.133623560695</v>
       </c>
       <c r="J43" t="n">
-        <v>122.934823259123</v>
+        <v>130.133623560695</v>
       </c>
       <c r="K43" t="n">
-        <v>122.934823259123</v>
+        <v>130.133623560695</v>
       </c>
       <c r="L43" t="n">
-        <v>122.934823259123</v>
+        <v>130.133623560695</v>
       </c>
       <c r="M43" t="n">
-        <v>122.934823259123</v>
+        <v>130.133623560695</v>
       </c>
       <c r="N43" t="n">
         <v>130.133623560695</v>
@@ -7600,19 +7600,19 @@
         <v>130.133623560695</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323076</v>
+        <v>82.00555512323078</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931777</v>
+        <v>77.86490262931778</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753165</v>
+        <v>818.426354275317</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564248</v>
+        <v>708.1276389564252</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465751</v>
+        <v>610.3878506465755</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706554</v>
+        <v>478.6008376706559</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660721</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06597548400536</v>
+        <v>190.6518442323785</v>
       </c>
       <c r="K44" t="n">
-        <v>28.06597548400536</v>
+        <v>422.5915955308618</v>
       </c>
       <c r="L44" t="n">
-        <v>313.3864894880867</v>
+        <v>707.9121095349431</v>
       </c>
       <c r="M44" t="n">
-        <v>632.8480600983553</v>
+        <v>1027.373680145211</v>
       </c>
       <c r="N44" t="n">
-        <v>946.7756247573689</v>
+        <v>1341.301244804225</v>
       </c>
       <c r="O44" t="n">
-        <v>980.9962594500365</v>
+        <v>1375.521879496893</v>
       </c>
       <c r="P44" t="n">
-        <v>1204.65487834578</v>
+        <v>1375.521879496893</v>
       </c>
       <c r="Q44" t="n">
-        <v>1344.273985695032</v>
+        <v>1375.521879496893</v>
       </c>
       <c r="R44" t="n">
-        <v>1389.94092728981</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="S44" t="n">
         <v>1403.298774200268</v>
@@ -7679,19 +7679,19 @@
         <v>1403.298774200268</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.065670889991</v>
+        <v>1394.065670889992</v>
       </c>
       <c r="V44" t="n">
         <v>1313.388888674157</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.523540582954</v>
+        <v>1215.523540582955</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.550868785752</v>
+        <v>1095.550868785753</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181016</v>
+        <v>952.8480423181021</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>328.6347597522617</v>
+        <v>270.4834723610443</v>
       </c>
       <c r="C45" t="n">
-        <v>328.6347597522617</v>
+        <v>81.07119809400803</v>
       </c>
       <c r="D45" t="n">
-        <v>328.6347597522617</v>
+        <v>81.07119809400803</v>
       </c>
       <c r="E45" t="n">
-        <v>155.0715558736762</v>
+        <v>81.07119809400803</v>
       </c>
       <c r="F45" t="n">
-        <v>155.0715558736762</v>
+        <v>81.07119809400803</v>
       </c>
       <c r="G45" t="n">
-        <v>155.0715558736762</v>
+        <v>81.07119809400803</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400536</v>
+        <v>81.07119809400803</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400536</v>
+        <v>81.07119809400803</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K45" t="n">
         <v>66.02930149988569</v>
       </c>
       <c r="L45" t="n">
-        <v>183.3622206282598</v>
+        <v>183.3622206282597</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0388672322651</v>
+        <v>365.038867232265</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9438436430244</v>
+        <v>569.9438436430241</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6447832620587</v>
+        <v>701.6447832620585</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201586</v>
+        <v>778.3310522028239</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201586</v>
+        <v>778.3310522028239</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2698965201586</v>
+        <v>584.8050003644357</v>
       </c>
       <c r="T45" t="n">
-        <v>580.2298107578791</v>
+        <v>367.6626532881829</v>
       </c>
       <c r="U45" t="n">
-        <v>580.2298107578791</v>
+        <v>367.6626532881829</v>
       </c>
       <c r="V45" t="n">
-        <v>580.2298107578791</v>
+        <v>296.4378303019893</v>
       </c>
       <c r="W45" t="n">
-        <v>554.2754528169341</v>
+        <v>270.4834723610443</v>
       </c>
       <c r="X45" t="n">
-        <v>554.2754528169341</v>
+        <v>270.4834723610443</v>
       </c>
       <c r="Y45" t="n">
-        <v>328.6347597522617</v>
+        <v>270.4834723610443</v>
       </c>
     </row>
     <row r="46">
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="L46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="M46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="N46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="O46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="P46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Q46" t="n">
         <v>130.133623560695</v>
@@ -7837,19 +7837,19 @@
         <v>130.133623560695</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323076</v>
+        <v>82.00555512323078</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931777</v>
+        <v>77.86490262931778</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
   </sheetData>
@@ -8532,13 +8532,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.2365425770137</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
         <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
-        <v>176.6027710248758</v>
+        <v>176.4735084131581</v>
       </c>
       <c r="N9" t="n">
         <v>163.4361383816801</v>
@@ -8547,7 +8547,7 @@
         <v>177.1666678622357</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>166.6480266854964</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466383</v>
+        <v>292.137068246638</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9006,7 +9006,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841508</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466382</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9252,10 +9252,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466382</v>
       </c>
       <c r="O18" t="n">
-        <v>255.2227828913208</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466382</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247655</v>
+        <v>7.441042905518458</v>
       </c>
       <c r="C11" t="n">
-        <v>22.76153478981736</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891595</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E11" t="n">
         <v>193.3306479085683</v>
@@ -23270,13 +23270,13 @@
         <v>36.55305216769861</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033368</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554828</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240824</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538037</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675142</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958192</v>
+        <v>72.00227733958189</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>130.3588748685659</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X11" t="n">
         <v>181.6344501416383</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.63936994613502</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.441042905518373</v>
+        <v>195.9389762247654</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.0572332281109</v>
       </c>
       <c r="D14" t="n">
         <v>159.6238954891594</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3306479085682</v>
+        <v>12.08486886556713</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0509854869456</v>
+        <v>36.55305216769855</v>
       </c>
       <c r="G14" t="n">
-        <v>227.0933635063345</v>
+        <v>52.19197549033362</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240816</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,13 +23540,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929897</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538028</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675134</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>72.00227733958184</v>
@@ -23561,7 +23561,7 @@
         <v>181.6344501416382</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.63936994613493</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="15">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198434.6989147034</v>
+        <v>198434.6989147033</v>
       </c>
       <c r="C2" t="n">
-        <v>198434.6989147034</v>
+        <v>198434.6989147035</v>
       </c>
       <c r="D2" t="n">
         <v>198549.2960368087</v>
       </c>
       <c r="E2" t="n">
-        <v>170940.4714685551</v>
+        <v>170940.4714685552</v>
       </c>
       <c r="F2" t="n">
         <v>170940.4714685552</v>
       </c>
       <c r="G2" t="n">
-        <v>198836.6734931705</v>
+        <v>198836.6734931706</v>
       </c>
       <c r="H2" t="n">
         <v>198836.6734931706</v>
       </c>
       <c r="I2" t="n">
-        <v>198836.6734931706</v>
+        <v>198836.6734931705</v>
       </c>
       <c r="J2" t="n">
         <v>198836.6734931706</v>
       </c>
       <c r="K2" t="n">
-        <v>198836.6734931706</v>
+        <v>198836.6734931705</v>
       </c>
       <c r="L2" t="n">
-        <v>198836.6734931704</v>
+        <v>198836.6734931703</v>
       </c>
       <c r="M2" t="n">
         <v>198836.6734931706</v>
@@ -26353,7 +26353,7 @@
         <v>198836.6734931706</v>
       </c>
       <c r="P2" t="n">
-        <v>198836.6734931706</v>
+        <v>198836.6734931705</v>
       </c>
     </row>
     <row r="3">
@@ -26375,19 +26375,19 @@
         <v>279126.115178714</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
         <v>95439.52541913325</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143496.2830068792</v>
+        <v>143496.2830068793</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>96101.69331262469</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232282</v>
+        <v>46197.36629232277</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924374</v>
+        <v>72254.91485924381</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,10 +26433,10 @@
         <v>372628.7466577631</v>
       </c>
       <c r="H4" t="n">
-        <v>372628.7466577633</v>
+        <v>372628.7466577631</v>
       </c>
       <c r="I4" t="n">
-        <v>372628.7466577631</v>
+        <v>372628.7466577632</v>
       </c>
       <c r="J4" t="n">
         <v>373436.5296138825</v>
@@ -26448,7 +26448,7 @@
         <v>373421.7396465039</v>
       </c>
       <c r="M4" t="n">
-        <v>372611.8022731853</v>
+        <v>372611.8022731854</v>
       </c>
       <c r="N4" t="n">
         <v>372611.8022731853</v>
@@ -26457,7 +26457,7 @@
         <v>372998.8649369031</v>
       </c>
       <c r="P4" t="n">
-        <v>372998.864936903</v>
+        <v>372998.8649369031</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>28642.95693774777</v>
+        <v>28642.95693774778</v>
       </c>
       <c r="F5" t="n">
         <v>28642.95693774778</v>
@@ -26485,13 +26485,13 @@
         <v>38672.33876582417</v>
       </c>
       <c r="H5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582417</v>
       </c>
       <c r="I5" t="n">
         <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.67722016349</v>
+        <v>47449.6772201635</v>
       </c>
       <c r="K5" t="n">
         <v>47449.67722016349</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249561.5272521318</v>
+        <v>-249565.9936363371</v>
       </c>
       <c r="C6" t="n">
-        <v>-249561.5272521318</v>
+        <v>-249565.993636337</v>
       </c>
       <c r="D6" t="n">
-        <v>-250499.2147355329</v>
+        <v>-250502.4078183814</v>
       </c>
       <c r="E6" t="n">
-        <v>-438849.4792624479</v>
+        <v>-439159.4370627215</v>
       </c>
       <c r="F6" t="n">
-        <v>-159723.364083734</v>
+        <v>-160033.3218840074</v>
       </c>
       <c r="G6" t="n">
         <v>-307903.93734955</v>
       </c>
       <c r="H6" t="n">
+        <v>-212464.4119304167</v>
+      </c>
+      <c r="I6" t="n">
         <v>-212464.4119304169</v>
       </c>
-      <c r="I6" t="n">
-        <v>-212464.4119304167</v>
-      </c>
       <c r="J6" t="n">
-        <v>-365545.8163477547</v>
+        <v>-365545.8163477548</v>
       </c>
       <c r="K6" t="n">
-        <v>-222049.5333408753</v>
+        <v>-222049.5333408755</v>
       </c>
       <c r="L6" t="n">
         <v>-318011.5070488064</v>
       </c>
       <c r="M6" t="n">
-        <v>-260885.7906710248</v>
+        <v>-260885.7906710249</v>
       </c>
       <c r="N6" t="n">
-        <v>-214688.424378702</v>
+        <v>-214688.4243787021</v>
       </c>
       <c r="O6" t="n">
-        <v>-290214.2341318494</v>
+        <v>-290214.2341318496</v>
       </c>
       <c r="P6" t="n">
-        <v>-217959.3192726057</v>
+        <v>-217959.3192726058</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
         <v>178.1482641530679</v>
@@ -26707,7 +26707,7 @@
         <v>297.4476709269845</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K2" t="n">
         <v>213.484750524001</v>
@@ -26777,7 +26777,7 @@
         <v>101.1713840758393</v>
       </c>
       <c r="P3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
     </row>
     <row r="4">
@@ -26811,7 +26811,7 @@
         <v>188.497933319247</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892755</v>
+        <v>448.9587426892757</v>
       </c>
       <c r="K4" t="n">
         <v>448.9587426892755</v>
@@ -26826,10 +26826,10 @@
         <v>260.4608093700285</v>
       </c>
       <c r="O4" t="n">
-        <v>350.824693550067</v>
+        <v>350.8246935500671</v>
       </c>
       <c r="P4" t="n">
-        <v>350.824693550067</v>
+        <v>350.8246935500671</v>
       </c>
     </row>
   </sheetData>
@@ -26914,22 +26914,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>119.2994067739166</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008437</v>
+        <v>94.18534375008443</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>120.1271166407809</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540352</v>
+        <v>57.74670786540347</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929164</v>
+        <v>63.13594470929169</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792336</v>
+        <v>185.2986836792335</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003844</v>
+        <v>90.36388418003855</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>119.2994067739166</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008437</v>
+        <v>94.18534375008443</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792336</v>
+        <v>185.2986836792335</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E8" t="n">
-        <v>371.4789120616362</v>
+        <v>371.6088275148272</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27913,7 +27913,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W8" t="n">
-        <v>338.0263792789579</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X8" t="n">
         <v>359.7827142947061</v>
@@ -27932,7 +27932,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>184.3189018843524</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
         <v>159.1723150765785</v>
@@ -27947,10 +27947,10 @@
         <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>127.8372169228968</v>
+        <v>124.6379672828833</v>
       </c>
       <c r="I9" t="n">
-        <v>111.6565698077035</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
         <v>73.03491363274843</v>
@@ -27974,13 +27974,13 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>31.44843229210258</v>
       </c>
       <c r="R9" t="n">
         <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.4336248079265</v>
       </c>
       <c r="T9" t="n">
         <v>213.0301613335635</v>
@@ -27995,7 +27995,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X9" t="n">
-        <v>214.1136647994571</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
         <v>223.3842861340256</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J11" t="n">
-        <v>76.78161896459412</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K11" t="n">
-        <v>178.1482641530678</v>
+        <v>6.727192146301036</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3051631366611</v>
       </c>
       <c r="M11" t="n">
-        <v>106.8192473728358</v>
+        <v>106.8192473728357</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4091523741034</v>
+        <v>112.4091523741033</v>
       </c>
       <c r="O11" t="n">
-        <v>116.1996486658712</v>
+        <v>44.94891234750301</v>
       </c>
       <c r="P11" t="n">
-        <v>15.09197235108886</v>
+        <v>15.09197235108884</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.71173703742204</v>
+        <v>89.71173703742203</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="12">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>123.2002531873857</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28178,10 +28178,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H12" t="n">
         <v>125.7355245857741</v>
@@ -28190,7 +28190,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390263</v>
+        <v>17.56830793844033</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161083</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>3.092858000757277</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="13">
@@ -28251,13 +28251,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>178.1482641530678</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>178.1482641530678</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.7007749271525</v>
@@ -28272,49 +28272,49 @@
         <v>120.239607582909</v>
       </c>
       <c r="K13" t="n">
-        <v>67.02998013919002</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L13" t="n">
-        <v>57.43864541773279</v>
+        <v>57.7356364368365</v>
       </c>
       <c r="M13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52015736928139</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="O13" t="n">
-        <v>178.1482641530678</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.2169859636892</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="14">
@@ -28351,25 +28351,25 @@
         <v>178.1482641530679</v>
       </c>
       <c r="K14" t="n">
+        <v>6.78521280989343</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>153.9316356498857</v>
+      </c>
+      <c r="P14" t="n">
         <v>178.1482641530679</v>
       </c>
-      <c r="L14" t="n">
-        <v>14.83300347739736</v>
-      </c>
-      <c r="M14" t="n">
-        <v>106.8192473728358</v>
-      </c>
-      <c r="N14" t="n">
-        <v>112.4091523741034</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>15.09197235108886</v>
-      </c>
       <c r="Q14" t="n">
-        <v>89.71173703742204</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R14" t="n">
         <v>178.1482641530679</v>
@@ -28409,25 +28409,25 @@
         <v>178.1482641530679</v>
       </c>
       <c r="D15" t="n">
-        <v>102.3942395537871</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H15" t="n">
-        <v>125.7355245857741</v>
+        <v>65.02993556410553</v>
       </c>
       <c r="I15" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390263</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,13 +28448,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161083</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1482641530679</v>
+        <v>3.092858000757304</v>
       </c>
       <c r="T15" t="n">
         <v>178.1482641530679</v>
@@ -28491,13 +28491,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>178.1482641530679</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>178.1482641530679</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>178.1482641530679</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H16" t="n">
         <v>165.8243976546666</v>
@@ -28506,7 +28506,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
-        <v>120.239607582909</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K16" t="n">
         <v>178.1482641530679</v>
@@ -28515,16 +28515,16 @@
         <v>178.1482641530679</v>
       </c>
       <c r="M16" t="n">
-        <v>25.21686539889349</v>
+        <v>59.30963929499661</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52015736928139</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="O16" t="n">
-        <v>86.29776189362684</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P16" t="n">
-        <v>178.1482641530679</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q16" t="n">
         <v>127.2169859636892</v>
@@ -28585,40 +28585,40 @@
         <v>297.4476709269845</v>
       </c>
       <c r="J17" t="n">
-        <v>76.78161896459412</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K17" t="n">
-        <v>6.72719214630105</v>
+        <v>6.727192146301036</v>
       </c>
       <c r="L17" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>34.24096047661035</v>
+        <v>15.09197235108884</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.71173703742204</v>
+        <v>245.3472348708368</v>
       </c>
       <c r="R17" t="n">
         <v>297.4476709269845</v>
       </c>
       <c r="S17" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="T17" t="n">
         <v>297.4476709269845</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="V17" t="n">
         <v>297.4476709269845</v>
@@ -28646,16 +28646,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>151.9667745289141</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>125.7355245857741</v>
@@ -28664,7 +28664,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390263</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,31 +28685,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161083</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
-        <v>3.092858000757277</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T18" t="n">
-        <v>26.47299028624324</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>48.73013617764157</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>120.2669013228623</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022359</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>34.8863528147786</v>
       </c>
     </row>
     <row r="19">
@@ -28746,7 +28746,7 @@
         <v>120.239607582909</v>
       </c>
       <c r="K19" t="n">
-        <v>67.02998013919002</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L19" t="n">
         <v>32.15181624817892</v>
@@ -28755,13 +28755,13 @@
         <v>25.21686539889349</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928139</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O19" t="n">
         <v>37.47888399777683</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024891</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28819,13 +28819,13 @@
         <v>297.4476709269845</v>
       </c>
       <c r="I20" t="n">
-        <v>269.4038888699198</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78161896459412</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K20" t="n">
-        <v>6.72719214630105</v>
+        <v>6.727192146301036</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28834,28 +28834,28 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>203.5899056703359</v>
+        <v>15.09197235108884</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.71173703742204</v>
+        <v>245.3472348708368</v>
       </c>
       <c r="R20" t="n">
         <v>297.4476709269845</v>
       </c>
       <c r="S20" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="T20" t="n">
         <v>297.4476709269845</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269845</v>
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28895,13 +28895,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>24.36761682508934</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I21" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390263</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,10 +28922,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161083</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
         <v>191.5907913200043</v>
@@ -28934,10 +28934,10 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280694968886</v>
+        <v>48.73013617764161</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>64.88562041858447</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -28983,7 +28983,7 @@
         <v>120.239607582909</v>
       </c>
       <c r="K22" t="n">
-        <v>67.02998013919002</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L22" t="n">
         <v>32.15181624817892</v>
@@ -28992,13 +28992,13 @@
         <v>25.21686539889349</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928139</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O22" t="n">
         <v>37.47888399777683</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024891</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29056,16 +29056,16 @@
         <v>297.4476709269845</v>
       </c>
       <c r="I23" t="n">
-        <v>241.0097692154761</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78161896459412</v>
+        <v>265.2795522838411</v>
       </c>
       <c r="K23" t="n">
-        <v>195.225125465548</v>
+        <v>6.727192146301036</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29077,22 +29077,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>203.5899056703358</v>
+        <v>15.09197235108884</v>
       </c>
       <c r="Q23" t="n">
-        <v>102.3371850156337</v>
+        <v>210.3198592895824</v>
       </c>
       <c r="R23" t="n">
         <v>194.8815453823669</v>
       </c>
       <c r="S23" t="n">
-        <v>297.4476709269845</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T23" t="n">
         <v>222.4658813998193</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269845</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269845</v>
@@ -29114,31 +29114,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.72151473007284</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3634103439874</v>
+        <v>90.42354896709796</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390263</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,13 +29159,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161083</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
-        <v>3.092858000757334</v>
+        <v>3.092858000757276</v>
       </c>
       <c r="T24" t="n">
         <v>214.9709236054903</v>
@@ -29174,7 +29174,7 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
-        <v>52.15098759615526</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -29183,7 +29183,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.88635281477863</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29220,7 +29220,7 @@
         <v>120.239607582909</v>
       </c>
       <c r="K25" t="n">
-        <v>67.02998013919002</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L25" t="n">
         <v>32.15181624817892</v>
@@ -29229,13 +29229,13 @@
         <v>25.21686539889349</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928139</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O25" t="n">
         <v>37.47888399777683</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024891</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4847505240001</v>
+        <v>213.484750524001</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="27">
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>149.2582890157156</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29366,16 +29366,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H27" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390263</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161083</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.7198007890777</v>
@@ -29405,22 +29405,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U27" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4847505240011</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4847505240011</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4847505240011</v>
+        <v>17.03302064465549</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="28">
@@ -29430,19 +29430,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>213.484750524001</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>213.484750524001</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>213.484750524001</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>213.484750524001</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>148.4923032838001</v>
       </c>
       <c r="G28" t="n">
         <v>168.7007749271525</v>
@@ -29454,10 +29454,10 @@
         <v>164.852968067965</v>
       </c>
       <c r="J28" t="n">
-        <v>155.8465444896706</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K28" t="n">
-        <v>67.02998013919002</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L28" t="n">
         <v>32.15181624817892</v>
@@ -29466,13 +29466,13 @@
         <v>25.21686539889349</v>
       </c>
       <c r="N28" t="n">
-        <v>213.4847505240011</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O28" t="n">
         <v>37.47888399777683</v>
       </c>
       <c r="P28" t="n">
-        <v>58.47859890024891</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2169859636892</v>
@@ -29481,25 +29481,25 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4847505240011</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="29">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -29597,7 +29597,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>145.2568804839589</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29609,10 +29609,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3634103439874</v>
+        <v>45.63148125371951</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390263</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,10 +29633,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161083</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.5907913200043</v>
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>213.484750524001</v>
@@ -29654,7 +29654,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y30" t="n">
         <v>213.484750524001</v>
@@ -29691,10 +29691,10 @@
         <v>164.852968067965</v>
       </c>
       <c r="J31" t="n">
+        <v>120.239607582909</v>
+      </c>
+      <c r="K31" t="n">
         <v>213.484750524001</v>
-      </c>
-      <c r="K31" t="n">
-        <v>67.02998013919002</v>
       </c>
       <c r="L31" t="n">
         <v>32.15181624817892</v>
@@ -29703,19 +29703,19 @@
         <v>25.21686539889349</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928139</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O31" t="n">
-        <v>166.7504817497997</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P31" t="n">
-        <v>58.47859890024891</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.2169859636892</v>
+        <v>213.33374564036</v>
       </c>
       <c r="R31" t="n">
-        <v>213.484750524001</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
         <v>213.484750524001</v>
@@ -29779,7 +29779,7 @@
         <v>214.3124603908653</v>
       </c>
       <c r="M32" t="n">
-        <v>213.626250649248</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="N32" t="n">
         <v>214.3124603908653</v>
@@ -29791,7 +29791,7 @@
         <v>214.3124603908653</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.3124603908653</v>
+        <v>213.626250649248</v>
       </c>
       <c r="R32" t="n">
         <v>194.8815453823669</v>
@@ -29837,16 +29837,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>143.782205218969</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I33" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>52.47517038390262</v>
@@ -29870,19 +29870,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161073</v>
+        <v>0.8564242008745664</v>
       </c>
       <c r="R33" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3124603908653</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>214.3124603908653</v>
@@ -29894,7 +29894,7 @@
         <v>214.3124603908653</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="34">
@@ -29928,7 +29928,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J34" t="n">
-        <v>120.239607582909</v>
+        <v>142.577603308352</v>
       </c>
       <c r="K34" t="n">
         <v>67.02998013919</v>
@@ -29937,7 +29937,7 @@
         <v>32.15181624817892</v>
       </c>
       <c r="M34" t="n">
-        <v>47.55486112433648</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N34" t="n">
         <v>16.52015736928138</v>
@@ -30007,25 +30007,25 @@
         <v>272.0591682562688</v>
       </c>
       <c r="J35" t="n">
-        <v>76.78161896459409</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="K35" t="n">
-        <v>6.727192146301029</v>
+        <v>6.727192146301036</v>
       </c>
       <c r="L35" t="n">
-        <v>213.2680391874426</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>178.7821234236172</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>70.30195348256761</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>225.8945117006673</v>
       </c>
       <c r="P35" t="n">
-        <v>15.09197235108883</v>
+        <v>56.27202745237449</v>
       </c>
       <c r="Q35" t="n">
         <v>272.0591682562688</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30074,19 +30074,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>96.6295792834143</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3634103439874</v>
+        <v>22.20729479638855</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390262</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,10 +30107,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S36" t="n">
         <v>191.5907913200043</v>
@@ -30119,7 +30119,7 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -30174,7 +30174,7 @@
         <v>32.15181624817892</v>
       </c>
       <c r="M37" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N37" t="n">
         <v>16.52015736928138</v>
@@ -30189,7 +30189,7 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R37" t="n">
-        <v>203.4299611556341</v>
+        <v>238.986463089481</v>
       </c>
       <c r="S37" t="n">
         <v>235.4380443661806</v>
@@ -30207,7 +30207,7 @@
         <v>272.0591682562688</v>
       </c>
       <c r="X37" t="n">
-        <v>257.4759573420895</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
         <v>217.1412728141684</v>
@@ -30244,34 +30244,34 @@
         <v>272.0591682562688</v>
       </c>
       <c r="J38" t="n">
-        <v>76.78161896459409</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="K38" t="n">
-        <v>267.1880015163296</v>
+        <v>246.2174229308015</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>178.7821234236172</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>184.3720284248848</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>130.3120189993028</v>
+        <v>15.09197235108884</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.71173703742201</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="R38" t="n">
-        <v>194.8815453823669</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="S38" t="n">
-        <v>227.5169945584482</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="T38" t="n">
         <v>222.4658813998193</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30311,16 +30311,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>33.59783223481135</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30344,16 +30344,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280694968886</v>
@@ -30362,7 +30362,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>6.243774206983062</v>
+        <v>216.0779778645398</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30390,13 +30390,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>174.4833841522936</v>
       </c>
       <c r="G40" t="n">
         <v>168.7007749271525</v>
       </c>
       <c r="H40" t="n">
-        <v>201.3808995885135</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I40" t="n">
         <v>164.852968067965</v>
@@ -30411,7 +30411,7 @@
         <v>32.15181624817892</v>
       </c>
       <c r="M40" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N40" t="n">
         <v>16.52015736928138</v>
@@ -30478,13 +30478,13 @@
         <v>241.009769215476</v>
       </c>
       <c r="I41" t="n">
+        <v>241.0097692154761</v>
+      </c>
+      <c r="J41" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="J41" t="n">
-        <v>76.78161896459409</v>
-      </c>
       <c r="K41" t="n">
-        <v>6.727192146301029</v>
+        <v>241.009769215476</v>
       </c>
       <c r="L41" t="n">
         <v>241.009769215476</v>
@@ -30493,25 +30493,25 @@
         <v>241.009769215476</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="O41" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>212.1972505846466</v>
+        <v>15.09197235108884</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.009769215476</v>
+        <v>117.7692064347713</v>
       </c>
       <c r="R41" t="n">
-        <v>241.009769215476</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S41" t="n">
-        <v>241.009769215476</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T41" t="n">
-        <v>241.009769215476</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U41" t="n">
         <v>241.009769215476</v>
@@ -30548,19 +30548,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>18.34432409284275</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30587,7 +30587,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>214.9709236054903</v>
@@ -30596,16 +30596,16 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>241.009769215476</v>
+        <v>199.372560454263</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30621,10 +30621,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
+        <v>148.9476566683583</v>
+      </c>
+      <c r="E43" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="E43" t="n">
-        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
         <v>138.9268822184467</v>
@@ -30648,10 +30648,10 @@
         <v>32.15181624817892</v>
       </c>
       <c r="M43" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N43" t="n">
-        <v>23.79167282541465</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O43" t="n">
         <v>37.47888399777683</v>
@@ -30718,10 +30718,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
-        <v>76.78161896459409</v>
+        <v>241.009769215476</v>
       </c>
       <c r="K44" t="n">
-        <v>6.727192146301014</v>
+        <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
         <v>241.009769215476</v>
@@ -30736,16 +30736,16 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>241.009769215476</v>
+        <v>15.09197235108884</v>
       </c>
       <c r="Q44" t="n">
-        <v>230.7411384003031</v>
+        <v>89.71173703742203</v>
       </c>
       <c r="R44" t="n">
-        <v>241.009769215476</v>
+        <v>222.9390147797162</v>
       </c>
       <c r="S44" t="n">
-        <v>241.009769215476</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T44" t="n">
         <v>222.4658813998193</v>
@@ -30776,13 +30776,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30791,13 +30791,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I45" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,22 +30818,22 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161062</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>11.98123870083364</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>170.1363461590705</v>
       </c>
       <c r="W45" t="n">
         <v>241.009769215476</v>
@@ -30842,7 +30842,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30876,28 +30876,28 @@
         <v>164.852968067965</v>
       </c>
       <c r="J46" t="n">
-        <v>223.3382420038076</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K46" t="n">
         <v>67.02998013919</v>
       </c>
       <c r="L46" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889349</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O46" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024889</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.2169859636892</v>
+        <v>230.3156203845878</v>
       </c>
       <c r="R46" t="n">
         <v>203.4299611556341</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631728</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501023</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645936</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246048</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727844</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M11" t="n">
-        <v>71.4163207803285</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401888</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556008</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521924</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.9210906617881</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318167</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610808</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T11" t="n">
         <v>1.78041300016879</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705381</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>0.2176139204650129</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122624</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729609</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J12" t="n">
-        <v>20.5597432488458</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000166</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447571</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133241</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427542</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134013</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862162</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795497</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R12" t="n">
         <v>13.51115200922247</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935652</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971347</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431670529375085</v>
@@ -31911,46 +31911,46 @@
         <v>0.1824402007924971</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773293</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014369</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600452</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309187</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O13" t="n">
-        <v>25.7870931083795</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P13" t="n">
         <v>22.06531301221255</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545173</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542639</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629243</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679419</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00995128367959076</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631728</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I14" t="n">
-        <v>15.68003933501023</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645936</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246048</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727844</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M14" t="n">
-        <v>71.4163207803285</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401888</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556008</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521924</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.9210906617881</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54857067318167</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610808</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T14" t="n">
         <v>1.78041300016879</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705381</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>0.2176139204650129</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122624</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729609</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J15" t="n">
-        <v>20.5597432488458</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000166</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447571</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133241</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427542</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134013</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862162</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795497</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R15" t="n">
         <v>13.51115200922247</v>
       </c>
       <c r="S15" t="n">
-        <v>4.042083127935652</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971347</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431670529375085</v>
@@ -32148,46 +32148,46 @@
         <v>0.1824402007924971</v>
       </c>
       <c r="H16" t="n">
-        <v>1.622059239773293</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014369</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600452</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91832636309187</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O16" t="n">
-        <v>25.7870931083795</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P16" t="n">
         <v>22.06531301221255</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27687899545173</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542639</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629243</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679419</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00995128367959076</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631728</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68003933501023</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645936</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246048</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727844</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M17" t="n">
-        <v>71.4163207803285</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401888</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556008</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521924</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.9210906617881</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318167</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610808</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T17" t="n">
         <v>1.78041300016879</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705381</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32306,43 @@
         <v>0.2176139204650129</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122624</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729609</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J18" t="n">
-        <v>20.5597432488458</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000166</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447571</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133241</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427542</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134013</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862162</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795497</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R18" t="n">
         <v>13.51115200922247</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935652</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971347</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375085</v>
@@ -32385,46 +32385,46 @@
         <v>0.1824402007924971</v>
       </c>
       <c r="H19" t="n">
-        <v>1.622059239773293</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014369</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600452</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309187</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O19" t="n">
-        <v>25.7870931083795</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P19" t="n">
         <v>22.06531301221255</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27687899545173</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542639</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629243</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679419</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00995128367959076</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631728</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I20" t="n">
-        <v>15.68003933501023</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645936</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246048</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727844</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M20" t="n">
-        <v>71.4163207803285</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401888</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556008</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521924</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.9210906617881</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54857067318167</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610808</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T20" t="n">
         <v>1.78041300016879</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705381</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,43 +32543,43 @@
         <v>0.2176139204650129</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122624</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729609</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J21" t="n">
-        <v>20.5597432488458</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000166</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447571</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133241</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427542</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134013</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862162</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795497</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R21" t="n">
         <v>13.51115200922247</v>
       </c>
       <c r="S21" t="n">
-        <v>4.042083127935652</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971347</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431670529375085</v>
@@ -32622,46 +32622,46 @@
         <v>0.1824402007924971</v>
       </c>
       <c r="H22" t="n">
-        <v>1.622059239773293</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014369</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600452</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91832636309187</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O22" t="n">
-        <v>25.7870931083795</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P22" t="n">
         <v>22.06531301221255</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.27687899545173</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542639</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629243</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679419</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00995128367959076</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631728</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I23" t="n">
-        <v>15.68003933501023</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645936</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246048</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727844</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M23" t="n">
-        <v>71.4163207803285</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401888</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556008</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521924</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.9210906617881</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54857067318167</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610808</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T23" t="n">
         <v>1.78041300016879</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705381</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,43 +32780,43 @@
         <v>0.2176139204650129</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122624</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729609</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J24" t="n">
-        <v>20.5597432488458</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000166</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447571</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133241</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427542</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134013</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862162</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795497</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R24" t="n">
         <v>13.51115200922247</v>
       </c>
       <c r="S24" t="n">
-        <v>4.042083127935652</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971347</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431670529375085</v>
@@ -32859,46 +32859,46 @@
         <v>0.1824402007924971</v>
       </c>
       <c r="H25" t="n">
-        <v>1.622059239773293</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014369</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600452</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91832636309187</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O25" t="n">
-        <v>25.7870931083795</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P25" t="n">
         <v>22.06531301221255</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.27687899545173</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542639</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629243</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679419</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00995128367959076</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631728</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I26" t="n">
-        <v>15.68003933501023</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645936</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246048</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727844</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M26" t="n">
-        <v>71.4163207803285</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401888</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556008</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521924</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.9210906617881</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54857067318167</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610808</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T26" t="n">
         <v>1.78041300016879</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705381</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,43 +33017,43 @@
         <v>0.2176139204650129</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122624</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729609</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J27" t="n">
-        <v>20.5597432488458</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000166</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447571</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133241</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427542</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134013</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862162</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795497</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R27" t="n">
         <v>13.51115200922247</v>
       </c>
       <c r="S27" t="n">
-        <v>4.042083127935652</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971347</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431670529375085</v>
@@ -33096,46 +33096,46 @@
         <v>0.1824402007924971</v>
       </c>
       <c r="H28" t="n">
-        <v>1.622059239773293</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014369</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600452</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91832636309187</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O28" t="n">
-        <v>25.7870931083795</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P28" t="n">
         <v>22.06531301221255</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.27687899545173</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542639</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629243</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679419</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00995128367959076</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631728</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I29" t="n">
-        <v>15.68003933501023</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645936</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246048</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727844</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M29" t="n">
-        <v>71.4163207803285</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401888</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556008</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521924</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.9210906617881</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54857067318167</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610808</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T29" t="n">
         <v>1.78041300016879</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705381</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,43 +33254,43 @@
         <v>0.2176139204650129</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122624</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729609</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J30" t="n">
-        <v>20.5597432488458</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000166</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447571</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133241</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427542</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134013</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862162</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795497</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R30" t="n">
         <v>13.51115200922247</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935652</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971347</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431670529375085</v>
@@ -33333,46 +33333,46 @@
         <v>0.1824402007924971</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773293</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014369</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600452</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309187</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O31" t="n">
-        <v>25.7870931083795</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P31" t="n">
         <v>22.06531301221255</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27687899545173</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542639</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629243</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679419</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00995128367959076</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>0.4067191319631729</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217846</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I32" t="n">
         <v>15.68003933501024</v>
@@ -33421,10 +33421,10 @@
         <v>34.51977792645938</v>
       </c>
       <c r="K32" t="n">
-        <v>51.7361987824605</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727847</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M32" t="n">
         <v>71.41632078032853</v>
@@ -33433,13 +33433,13 @@
         <v>72.57191151401891</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556011</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P32" t="n">
-        <v>58.48671957521927</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178812</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R32" t="n">
         <v>25.54857067318168</v>
@@ -33451,7 +33451,7 @@
         <v>1.78041300016879</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253753055705383</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>2.101692337122625</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729613</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J33" t="n">
         <v>20.55974324884581</v>
@@ -33503,16 +33503,16 @@
         <v>35.13987592000167</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447573</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133244</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427545</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134016</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P33" t="n">
         <v>41.55471433862164</v>
@@ -33527,10 +33527,10 @@
         <v>4.042083127935654</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971351</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,7 +33573,7 @@
         <v>1.622059239773294</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014371</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J34" t="n">
         <v>12.89852219602955</v>
@@ -33582,7 +33582,7 @@
         <v>21.1962342375283</v>
       </c>
       <c r="L34" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M34" t="n">
         <v>28.59833074786389</v>
@@ -33591,25 +33591,25 @@
         <v>27.91832636309188</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q34" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542643</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S34" t="n">
         <v>3.179435135629245</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679422</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590766</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>0.4067191319631729</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217846</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I35" t="n">
         <v>15.68003933501024</v>
@@ -33658,10 +33658,10 @@
         <v>34.51977792645938</v>
       </c>
       <c r="K35" t="n">
-        <v>51.7361987824605</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727847</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M35" t="n">
         <v>71.41632078032853</v>
@@ -33670,13 +33670,13 @@
         <v>72.57191151401891</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556011</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P35" t="n">
-        <v>58.48671957521927</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178812</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R35" t="n">
         <v>25.54857067318168</v>
@@ -33688,7 +33688,7 @@
         <v>1.78041300016879</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253753055705383</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>2.101692337122625</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729613</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J36" t="n">
         <v>20.55974324884581</v>
@@ -33740,16 +33740,16 @@
         <v>35.13987592000167</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447573</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133244</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427545</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134016</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P36" t="n">
         <v>41.55471433862164</v>
@@ -33764,10 +33764,10 @@
         <v>4.042083127935654</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971351</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,7 +33810,7 @@
         <v>1.622059239773294</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014371</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J37" t="n">
         <v>12.89852219602955</v>
@@ -33819,7 +33819,7 @@
         <v>21.1962342375283</v>
       </c>
       <c r="L37" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M37" t="n">
         <v>28.59833074786389</v>
@@ -33828,25 +33828,25 @@
         <v>27.91832636309188</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q37" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542643</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S37" t="n">
         <v>3.179435135629245</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679422</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590766</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>0.4067191319631729</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217846</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I38" t="n">
         <v>15.68003933501024</v>
@@ -33895,10 +33895,10 @@
         <v>34.51977792645938</v>
       </c>
       <c r="K38" t="n">
-        <v>51.7361987824605</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727847</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M38" t="n">
         <v>71.41632078032853</v>
@@ -33907,13 +33907,13 @@
         <v>72.57191151401891</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556011</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P38" t="n">
-        <v>58.48671957521927</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178812</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R38" t="n">
         <v>25.54857067318168</v>
@@ -33925,7 +33925,7 @@
         <v>1.78041300016879</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253753055705383</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>2.101692337122625</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729613</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J39" t="n">
         <v>20.55974324884581</v>
@@ -33977,16 +33977,16 @@
         <v>35.13987592000167</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447573</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133244</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427545</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134016</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P39" t="n">
         <v>41.55471433862164</v>
@@ -34001,10 +34001,10 @@
         <v>4.042083127935654</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971351</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,7 +34047,7 @@
         <v>1.622059239773294</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014371</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J40" t="n">
         <v>12.89852219602955</v>
@@ -34056,7 +34056,7 @@
         <v>21.1962342375283</v>
       </c>
       <c r="L40" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M40" t="n">
         <v>28.59833074786389</v>
@@ -34065,25 +34065,25 @@
         <v>27.91832636309188</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q40" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542643</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S40" t="n">
         <v>3.179435135629245</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679422</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590766</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>0.4067191319631729</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217846</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I41" t="n">
         <v>15.68003933501024</v>
@@ -34132,10 +34132,10 @@
         <v>34.51977792645938</v>
       </c>
       <c r="K41" t="n">
-        <v>51.7361987824605</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727847</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M41" t="n">
         <v>71.41632078032853</v>
@@ -34144,13 +34144,13 @@
         <v>72.57191151401891</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556011</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P41" t="n">
-        <v>58.48671957521927</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178812</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R41" t="n">
         <v>25.54857067318168</v>
@@ -34162,7 +34162,7 @@
         <v>1.78041300016879</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253753055705383</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>2.101692337122625</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729613</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J42" t="n">
         <v>20.55974324884581</v>
@@ -34214,16 +34214,16 @@
         <v>35.13987592000167</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447573</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133244</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427545</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134016</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P42" t="n">
         <v>41.55471433862164</v>
@@ -34238,10 +34238,10 @@
         <v>4.042083127935654</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971351</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,7 +34284,7 @@
         <v>1.622059239773294</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014371</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J43" t="n">
         <v>12.89852219602955</v>
@@ -34293,7 +34293,7 @@
         <v>21.1962342375283</v>
       </c>
       <c r="L43" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M43" t="n">
         <v>28.59833074786389</v>
@@ -34302,25 +34302,25 @@
         <v>27.91832636309188</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q43" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542643</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S43" t="n">
         <v>3.179435135629245</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679422</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590766</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217845</v>
       </c>
       <c r="I44" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246049</v>
       </c>
       <c r="L44" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727846</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032856</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556009</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521925</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178811</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705382</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H45" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729612</v>
       </c>
       <c r="J45" t="n">
         <v>20.55974324884581</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447572</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133242</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427544</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134017</v>
+        <v>51.77588747134015</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R45" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.877136810997135</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375085</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H46" t="n">
         <v>1.622059239773294</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014372</v>
+        <v>5.48647440201437</v>
       </c>
       <c r="J46" t="n">
         <v>12.89852219602955</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752831</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600453</v>
       </c>
       <c r="M46" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837951</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221255</v>
       </c>
       <c r="Q46" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542641</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679421</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590764</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35155,7 +35155,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -35209,7 +35209,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>3.069987028295762</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.199249640013477</v>
       </c>
       <c r="N9" t="n">
         <v>3.199249640013477</v>
@@ -35267,7 +35267,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>101.3666451884738</v>
       </c>
       <c r="K11" t="n">
-        <v>171.4210720067668</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258587</v>
+        <v>188.497933319247</v>
       </c>
       <c r="M11" t="n">
         <v>188.497933319247</v>
@@ -35422,7 +35422,7 @@
         <v>188.497933319247</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7659463352325</v>
+        <v>79.51521001686427</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543466</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L12" t="n">
-        <v>118.5181001296707</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M12" t="n">
         <v>183.51176424647</v>
       </c>
       <c r="N12" t="n">
-        <v>188.497933319247</v>
+        <v>188.4979333192468</v>
       </c>
       <c r="O12" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181801</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,13 +35547,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.96561390235712</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.22138193462118</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35571,22 +35571,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>25.28682916955386</v>
+        <v>25.58382018865758</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9313987541743</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.6281067837864</v>
       </c>
       <c r="O13" t="n">
-        <v>140.669380155291</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6696652528189</v>
+        <v>119.669665252819</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>50.93127818937862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>101.3666451884738</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4210720067668</v>
+        <v>0.05802066359239454</v>
       </c>
       <c r="L14" t="n">
-        <v>62.02577365998324</v>
+        <v>47.19277018258589</v>
       </c>
       <c r="M14" t="n">
+        <v>81.67868594641129</v>
+      </c>
+      <c r="N14" t="n">
+        <v>76.08878094514371</v>
+      </c>
+      <c r="O14" t="n">
         <v>188.497933319247</v>
       </c>
-      <c r="N14" t="n">
-        <v>188.497933319247</v>
-      </c>
-      <c r="O14" t="n">
-        <v>34.56629766936125</v>
-      </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>163.0562918019791</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>88.43652711564589</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543466</v>
+        <v>38.3467939554345</v>
       </c>
       <c r="L15" t="n">
-        <v>118.5181001296707</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M15" t="n">
         <v>183.51176424647</v>
@@ -35741,7 +35741,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181801</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35787,13 +35787,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>36.47212294084292</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.22138193462126</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.447489225915445</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>57.90865657015894</v>
       </c>
       <c r="K16" t="n">
         <v>111.1182840138779</v>
@@ -35811,16 +35811,16 @@
         <v>145.996447904889</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>34.09277389610313</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>161.6281067837865</v>
       </c>
       <c r="O16" t="n">
-        <v>48.81887789585001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>119.669665252819</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35887,34 +35887,34 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>188.497933319247</v>
+        <v>47.19277018258589</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641126</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N17" t="n">
-        <v>188.497933319247</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936125</v>
+        <v>34.56629766936126</v>
       </c>
       <c r="P17" t="n">
-        <v>19.14898812552149</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>155.6354978334147</v>
       </c>
       <c r="R17" t="n">
         <v>102.5661255446176</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.93067636853628</v>
       </c>
       <c r="T17" t="n">
         <v>74.98178952716522</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>47.29712943433472</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543466</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L18" t="n">
-        <v>118.5181001296707</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M18" t="n">
         <v>183.51176424647</v>
@@ -35978,7 +35978,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181801</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>28.39411965444373</v>
+        <v>56.4379017115084</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,34 +36124,34 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258587</v>
+        <v>47.19277018258589</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641126</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N20" t="n">
-        <v>188.497933319247</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936125</v>
+        <v>34.56629766936126</v>
       </c>
       <c r="P20" t="n">
-        <v>188.497933319247</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>155.6354978334147</v>
       </c>
       <c r="R20" t="n">
         <v>102.5661255446176</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.93067636853628</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716528</v>
+        <v>74.98178952716522</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>47.29712943433472</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543466</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L21" t="n">
-        <v>118.5181001296707</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M21" t="n">
         <v>183.51176424647</v>
@@ -36215,7 +36215,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181801</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.4379017115084</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>188.497933319247</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>188.497933319247</v>
       </c>
-      <c r="L23" t="n">
-        <v>47.19277018258587</v>
-      </c>
       <c r="M23" t="n">
-        <v>81.67868594641126</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514368</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936125</v>
+        <v>34.56629766936126</v>
       </c>
       <c r="P23" t="n">
-        <v>188.497933319247</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>12.62544797821169</v>
+        <v>120.6081222521604</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.93067636853634</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433478</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543466</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L24" t="n">
-        <v>118.5181001296707</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M24" t="n">
         <v>183.51176424647</v>
@@ -36452,7 +36452,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181801</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163325</v>
+        <v>18.60320514163417</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543466</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L27" t="n">
-        <v>118.5181001296707</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M27" t="n">
         <v>183.51176424647</v>
       </c>
       <c r="N27" t="n">
-        <v>206.9747236472314</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O27" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181801</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,19 +36726,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>35.86782985903295</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>47.02756955202869</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>68.30210027329034</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.80860931177605</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>9.565421065353448</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>35.60693690676167</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>196.9645931547197</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>289.5735314691447</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933622</v>
+        <v>248.0510481933623</v>
       </c>
       <c r="P29" t="n">
         <v>198.3927781729122</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543466</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L30" t="n">
-        <v>118.5181001296707</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M30" t="n">
         <v>183.51176424647</v>
       </c>
       <c r="N30" t="n">
-        <v>206.9747236472314</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O30" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181801</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.24514294109204</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>146.454770384811</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37002,16 +37002,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>129.2715977520228</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.11675967667074</v>
       </c>
       <c r="R31" t="n">
-        <v>10.05478936836688</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>261.5052305734512</v>
       </c>
       <c r="M32" t="n">
-        <v>295.3049365956593</v>
+        <v>295.9911463372766</v>
       </c>
       <c r="N32" t="n">
         <v>290.401241336009</v>
@@ -37087,7 +37087,7 @@
         <v>199.2204880397765</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6007233534433</v>
+        <v>123.914513611826</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>118.5181001296708</v>
       </c>
       <c r="M33" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N33" t="n">
         <v>206.9747236472315</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>22.337995725443</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>22.337995725443</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>31.04939904079271</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>195.2775492916747</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
+        <v>47.19277018258589</v>
+      </c>
+      <c r="M35" t="n">
+        <v>81.67868594641129</v>
+      </c>
+      <c r="N35" t="n">
+        <v>76.08878094514371</v>
+      </c>
+      <c r="O35" t="n">
         <v>260.4608093700285</v>
       </c>
-      <c r="M35" t="n">
-        <v>260.4608093700285</v>
-      </c>
-      <c r="N35" t="n">
-        <v>146.3907344277113</v>
-      </c>
-      <c r="O35" t="n">
-        <v>34.56629766936128</v>
-      </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>41.18005510128565</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3474312188468</v>
+        <v>182.3474312188467</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>118.5181001296708</v>
       </c>
       <c r="M36" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N36" t="n">
         <v>206.9747236472315</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>35.55650193384693</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37503,7 +37503,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>35.55650193384693</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -37540,34 +37540,34 @@
         <v>31.04939904079271</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>195.2775492916747</v>
       </c>
       <c r="K38" t="n">
-        <v>260.4608093700285</v>
+        <v>239.4902307845004</v>
       </c>
       <c r="L38" t="n">
-        <v>47.1927701825859</v>
+        <v>47.19277018258589</v>
       </c>
       <c r="M38" t="n">
-        <v>260.4608093700285</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N38" t="n">
-        <v>260.4608093700285</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O38" t="n">
-        <v>34.56629766936128</v>
+        <v>34.56629766936126</v>
       </c>
       <c r="P38" t="n">
-        <v>115.220046648214</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>182.3474312188467</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>77.1776228739019</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>44.54217369782059</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>118.5181001296708</v>
       </c>
       <c r="M39" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N39" t="n">
         <v>206.9747236472315</v>
@@ -37686,13 +37686,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>35.55650193384693</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>35.55650193384693</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.2281502508819</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>234.282577069175</v>
       </c>
       <c r="L41" t="n">
         <v>288.202539398062</v>
@@ -37789,25 +37789,25 @@
         <v>322.6884551618873</v>
       </c>
       <c r="N41" t="n">
-        <v>76.08878094514371</v>
+        <v>317.0985501606198</v>
       </c>
       <c r="O41" t="n">
-        <v>275.5760668848373</v>
+        <v>34.56629766936126</v>
       </c>
       <c r="P41" t="n">
-        <v>197.1052782335578</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.298032178054</v>
+        <v>28.05746939734927</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310917</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702785</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565678</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>118.5181001296708</v>
       </c>
       <c r="M42" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N42" t="n">
         <v>206.9747236472315</v>
@@ -37917,10 +37917,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>95.82711896476533</v>
+        <v>3.765006417647552</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.33362800325105</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>7.271515456133269</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38014,34 +38014,34 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.2281502508819</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>234.282577069175</v>
       </c>
       <c r="L44" t="n">
         <v>288.202539398062</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6884551618874</v>
+        <v>322.6884551618873</v>
       </c>
       <c r="N44" t="n">
         <v>317.0985501606198</v>
       </c>
       <c r="O44" t="n">
-        <v>34.56629766936129</v>
+        <v>34.56629766936126</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9177968643872</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.0294013628811</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310917</v>
+        <v>28.05746939734927</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702785</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L45" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M45" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N45" t="n">
         <v>206.9747236472315</v>
@@ -38111,7 +38111,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>103.0986344208986</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
